--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_8_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>453789.6215743929</v>
+        <v>452289.7970227847</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20671259.17306003</v>
+        <v>20671259.17306004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1945307.541958163</v>
+        <v>1945307.541958161</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7270351.956285162</v>
+        <v>7270351.956285163</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>102.7176563887149</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>351.4741705597985</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -724,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -825,13 +825,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>119.8634463900533</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -867,10 +867,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016273</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>364.4969591433075</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022511</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>419.4896798315821</v>
+        <v>276.620747164213</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.13954148002296</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>396.8039590335534</v>
+        <v>117.6062148722475</v>
       </c>
       <c r="H11" t="n">
         <v>280.3000132824656</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T11" t="n">
-        <v>163.5906144988534</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.5836881338</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1545,10 +1545,10 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H13" t="n">
-        <v>29.61055966253201</v>
+        <v>109.5613766002778</v>
       </c>
       <c r="I13" t="n">
-        <v>79.95081693774533</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S13" t="n">
         <v>153.1157641538466</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>285.0333817689169</v>
       </c>
       <c r="E14" t="n">
-        <v>130.3960670699324</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>396.8039590335534</v>
       </c>
       <c r="H14" t="n">
-        <v>280.3000132824656</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1703,7 +1703,7 @@
         <v>84.22096817724876</v>
       </c>
       <c r="H15" t="n">
-        <v>38.32173429518358</v>
+        <v>38.32173429518357</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>57.05774176454113</v>
+        <v>57.05774176454112</v>
       </c>
       <c r="T15" t="n">
         <v>127.6262487422148</v>
@@ -1782,10 +1782,10 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H16" t="n">
-        <v>29.61055966253201</v>
+        <v>39.11823926002985</v>
       </c>
       <c r="I16" t="n">
-        <v>79.95081693774534</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.507679597497226</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.1157641538466</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>45.6665930353138</v>
       </c>
       <c r="F17" t="n">
-        <v>115.2676129180113</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>396.8039590335534</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T17" t="n">
         <v>215.3280687419259</v>
@@ -2010,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>70.98821810594448</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2022,7 +2022,7 @@
         <v>136.1904448658554</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>135.9943754857658</v>
+        <v>153.1157641538466</v>
       </c>
       <c r="T19" t="n">
         <v>242.3092280111977</v>
@@ -2083,16 +2083,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>132.8837264651123</v>
       </c>
       <c r="E20" t="n">
-        <v>335.9258128294992</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.3280687419259</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H22" t="n">
-        <v>119.0690561977743</v>
+        <v>119.0690561977756</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.60101988269828</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T23" t="n">
         <v>215.3280687419259</v>
@@ -2493,10 +2493,10 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H25" t="n">
-        <v>109.5613766002777</v>
+        <v>29.6105596625328</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S25" t="n">
         <v>153.1157641538466</v>
@@ -2572,7 +2572,7 @@
         <v>396.8039590335534</v>
       </c>
       <c r="H26" t="n">
-        <v>280.3000132824678</v>
+        <v>280.3000132824656</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>69.60101988269828</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T26" t="n">
         <v>215.3280687419259</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.6752417263998</v>
+        <v>66.60303612057452</v>
       </c>
       <c r="H28" t="n">
-        <v>119.069056197775</v>
+        <v>136.1904448658554</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>136.1904448658554</v>
       </c>
       <c r="I31" t="n">
-        <v>79.95081693774533</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.507679597497207</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.1157641538466</v>
@@ -3006,10 +3006,10 @@
         <v>242.3092280111977</v>
       </c>
       <c r="U31" t="n">
-        <v>275.634482348624</v>
+        <v>258.5130936805441</v>
       </c>
       <c r="V31" t="n">
-        <v>177.5060678449505</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.60101988269828</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T32" t="n">
         <v>215.3280687419259</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>67.14700726466717</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H34" t="n">
-        <v>119.069056197775</v>
+        <v>136.1904448658554</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>396.8039590335534</v>
+        <v>144.0616488691551</v>
       </c>
       <c r="H35" t="n">
         <v>280.3000132824656</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T35" t="n">
-        <v>32.18677846022572</v>
+        <v>215.3280687419259</v>
       </c>
       <c r="U35" t="n">
         <v>256.5836881338</v>
@@ -3441,7 +3441,7 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H37" t="n">
-        <v>119.0690561977749</v>
+        <v>109.561376600278</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S37" t="n">
         <v>153.1157641538466</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>169.2942646156604</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>181.0187379240127</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.60101988269828</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T38" t="n">
         <v>215.3280687419259</v>
@@ -3678,7 +3678,7 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H40" t="n">
-        <v>119.0690561977749</v>
+        <v>136.1904448658554</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>153.1157641538466</v>
+        <v>135.9943754857667</v>
       </c>
       <c r="T40" t="n">
         <v>242.3092280111977</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>169.2942646156604</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3757,7 +3757,7 @@
         <v>396.8039590335534</v>
       </c>
       <c r="H41" t="n">
-        <v>97.15872300076558</v>
+        <v>280.3000132824656</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T41" t="n">
         <v>215.3280687419259</v>
@@ -3915,7 +3915,7 @@
         <v>163.6752417263998</v>
       </c>
       <c r="H43" t="n">
-        <v>119.0690561977749</v>
+        <v>119.0690561977754</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>396.8039590335534</v>
+        <v>144.0616488691551</v>
       </c>
       <c r="H44" t="n">
         <v>280.3000132824656</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.60101988269828</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.3280687419259</v>
       </c>
       <c r="U44" t="n">
-        <v>219.1694467113269</v>
+        <v>256.5836881338</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6752417263998</v>
+        <v>66.6030361205744</v>
       </c>
       <c r="H46" t="n">
         <v>136.1904448658554</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>135.9943754857662</v>
+        <v>153.1157641538466</v>
       </c>
       <c r="T46" t="n">
         <v>242.3092280111977</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648.8602641703436</v>
+        <v>1601.759173608573</v>
       </c>
       <c r="C2" t="n">
-        <v>614.758195394171</v>
+        <v>1567.6571048324</v>
       </c>
       <c r="D2" t="n">
-        <v>511.0029869207216</v>
+        <v>1131.747320006844</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>697.9725751651395</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
@@ -4339,13 +4339,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1149.495958523325</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1149.495958523325</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4363,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>2307.443876365254</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1902.588421776288</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1483.445958355598</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y2" t="n">
-        <v>1075.159834655251</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1331.379389918832</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1351.309055163234</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348371</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363599</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>281.9633400635787</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
         <v>281.9633400635787</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1786.86986531245</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C5" t="n">
-        <v>1348.727392495873</v>
+        <v>542.872367705873</v>
       </c>
       <c r="D5" t="n">
-        <v>912.8176076703178</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>479.0428628286129</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4570,13 +4570,13 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
         <v>632.7278666362198</v>
@@ -4597,22 +4597,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2586.408952615265</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2586.408952615265</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>2585.593902066702</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>2217.4151554573</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>2213.169435797358</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1032.884738113077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1032.884738113077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>2354.564847196633</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2354.564847196633</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348371</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363599</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870971</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885332</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
         <v>414.7393562644539</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>969.2487943945847</v>
+        <v>1114.066895752006</v>
       </c>
       <c r="C8" t="n">
-        <v>531.106321578008</v>
+        <v>675.924422935429</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>396.5095268099613</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4810,22 +4810,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>2123.562040472833</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4837,19 +4837,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2223.792002549091</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1818.936547960124</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X8" t="n">
-        <v>1399.794084539435</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>991.5079608390885</v>
+        <v>1540.366466236913</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>277.7880908295411</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>938.6281453713194</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1170.422159903163</v>
+        <v>2196.231238991742</v>
       </c>
       <c r="C11" t="n">
-        <v>1170.422159903163</v>
+        <v>1758.088766175165</v>
       </c>
       <c r="D11" t="n">
-        <v>1170.422159903163</v>
+        <v>1322.178981349609</v>
       </c>
       <c r="E11" t="n">
-        <v>1170.422159903163</v>
+        <v>888.4042365079044</v>
       </c>
       <c r="F11" t="n">
-        <v>742.5547303123708</v>
+        <v>460.5368069171122</v>
       </c>
       <c r="G11" t="n">
         <v>341.7426504804986</v>
       </c>
       <c r="H11" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I11" t="n">
-        <v>80.33562959155969</v>
+        <v>80.33562959155972</v>
       </c>
       <c r="J11" t="n">
-        <v>564.3159201147806</v>
+        <v>129.0612326618628</v>
       </c>
       <c r="K11" t="n">
-        <v>1289.631053780131</v>
+        <v>202.0882808546677</v>
       </c>
       <c r="L11" t="n">
-        <v>1380.227564556629</v>
+        <v>292.6847916311664</v>
       </c>
       <c r="M11" t="n">
-        <v>1481.033638874288</v>
+        <v>1017.999925296516</v>
       </c>
       <c r="N11" t="n">
-        <v>2206.348772539637</v>
+        <v>1743.315058961866</v>
       </c>
       <c r="O11" t="n">
-        <v>2303.077336486812</v>
+        <v>2107.192751264975</v>
       </c>
       <c r="P11" t="n">
-        <v>2385.632927921306</v>
+        <v>2832.507884930325</v>
       </c>
       <c r="Q11" t="n">
-        <v>2725.349631232608</v>
+        <v>2894.503695985665</v>
       </c>
       <c r="R11" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="S11" t="n">
-        <v>2930.566196627676</v>
+        <v>2860.262136140102</v>
       </c>
       <c r="T11" t="n">
-        <v>2765.323151679339</v>
+        <v>2860.262136140102</v>
       </c>
       <c r="U11" t="n">
-        <v>2765.323151679339</v>
+        <v>2601.086693580708</v>
       </c>
       <c r="V11" t="n">
-        <v>2402.706201613166</v>
+        <v>2601.086693580708</v>
       </c>
       <c r="W11" t="n">
-        <v>1997.850747024199</v>
+        <v>2196.231238991742</v>
       </c>
       <c r="X11" t="n">
-        <v>1578.70828360351</v>
+        <v>2196.231238991742</v>
       </c>
       <c r="Y11" t="n">
-        <v>1170.422159903163</v>
+        <v>2196.231238991742</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>97.32014645294097</v>
       </c>
       <c r="H12" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I12" t="n">
-        <v>95.25073581318483</v>
+        <v>95.25073581318485</v>
       </c>
       <c r="J12" t="n">
         <v>448.8296961642713</v>
       </c>
       <c r="K12" t="n">
-        <v>498.4305843758172</v>
+        <v>639.0610319072188</v>
       </c>
       <c r="L12" t="n">
-        <v>565.1250997060337</v>
+        <v>705.7555472374354</v>
       </c>
       <c r="M12" t="n">
-        <v>642.9544533193375</v>
+        <v>783.5849008507394</v>
       </c>
       <c r="N12" t="n">
-        <v>722.843718334316</v>
+        <v>863.474165865718</v>
       </c>
       <c r="O12" t="n">
-        <v>795.9267881882349</v>
+        <v>936.5572357196369</v>
       </c>
       <c r="P12" t="n">
         <v>995.212842394659</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1019.512670203673</v>
+        <v>1019.512670203674</v>
       </c>
       <c r="C13" t="n">
-        <v>846.9509586868982</v>
+        <v>846.9509586868986</v>
       </c>
       <c r="D13" t="n">
-        <v>681.0729658884209</v>
+        <v>681.0729658884213</v>
       </c>
       <c r="E13" t="n">
-        <v>511.3149621391581</v>
+        <v>511.3149621391586</v>
       </c>
       <c r="F13" t="n">
-        <v>334.6079081009143</v>
+        <v>334.6079081009148</v>
       </c>
       <c r="G13" t="n">
-        <v>169.2793811045509</v>
+        <v>169.2793811045513</v>
       </c>
       <c r="H13" t="n">
-        <v>139.369724879771</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I13" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="J13" t="n">
-        <v>163.3976231159128</v>
+        <v>163.3976231159127</v>
       </c>
       <c r="K13" t="n">
-        <v>468.0751373705504</v>
+        <v>468.0751373705503</v>
       </c>
       <c r="L13" t="n">
-        <v>924.5711147616718</v>
+        <v>924.571114761672</v>
       </c>
       <c r="M13" t="n">
         <v>1424.42230167049</v>
@@ -5214,16 +5214,16 @@
         <v>1906.088579918306</v>
       </c>
       <c r="O13" t="n">
-        <v>2362.157010674532</v>
+        <v>2362.157010674533</v>
       </c>
       <c r="P13" t="n">
-        <v>2740.809692597089</v>
+        <v>2740.80969259709</v>
       </c>
       <c r="Q13" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="R13" t="n">
-        <v>2920.962479862527</v>
+        <v>2920.962479862528</v>
       </c>
       <c r="S13" t="n">
         <v>2766.300091828339</v>
@@ -5235,16 +5235,16 @@
         <v>2243.124626818418</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.169118688848</v>
+        <v>1956.169118688849</v>
       </c>
       <c r="W13" t="n">
         <v>1684.14271427514</v>
       </c>
       <c r="X13" t="n">
-        <v>1438.750959608552</v>
+        <v>1438.750959608553</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.33128892266</v>
+        <v>1211.331288922661</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>909.365634366592</v>
+        <v>2047.120557850789</v>
       </c>
       <c r="C14" t="n">
-        <v>909.365634366592</v>
+        <v>1608.978085034213</v>
       </c>
       <c r="D14" t="n">
-        <v>473.4558495410365</v>
+        <v>1321.065578196923</v>
       </c>
       <c r="E14" t="n">
-        <v>341.7426504804986</v>
+        <v>887.290833355218</v>
       </c>
       <c r="F14" t="n">
-        <v>341.7426504804986</v>
+        <v>459.4234037644257</v>
       </c>
       <c r="G14" t="n">
-        <v>341.7426504804986</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="H14" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I14" t="n">
-        <v>80.33562959155967</v>
+        <v>80.33562959155972</v>
       </c>
       <c r="J14" t="n">
-        <v>129.0612326618627</v>
+        <v>564.3159201147806</v>
       </c>
       <c r="K14" t="n">
-        <v>202.0882808546673</v>
+        <v>637.3429683075855</v>
       </c>
       <c r="L14" t="n">
-        <v>927.4034145200171</v>
+        <v>727.9394790840843</v>
       </c>
       <c r="M14" t="n">
-        <v>1028.209488837675</v>
+        <v>828.7455534017427</v>
       </c>
       <c r="N14" t="n">
-        <v>1753.524622503025</v>
+        <v>931.1827753913667</v>
       </c>
       <c r="O14" t="n">
-        <v>2107.192751264975</v>
+        <v>1391.539900553323</v>
       </c>
       <c r="P14" t="n">
-        <v>2832.507884930325</v>
+        <v>2116.855034218673</v>
       </c>
       <c r="Q14" t="n">
-        <v>2894.503695985665</v>
+        <v>2725.349631232608</v>
       </c>
       <c r="R14" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="S14" t="n">
-        <v>2930.566196627676</v>
+        <v>2860.262136140102</v>
       </c>
       <c r="T14" t="n">
-        <v>2930.566196627676</v>
+        <v>2860.262136140102</v>
       </c>
       <c r="U14" t="n">
-        <v>2930.566196627676</v>
+        <v>2860.262136140102</v>
       </c>
       <c r="V14" t="n">
-        <v>2567.949246561503</v>
+        <v>2860.262136140102</v>
       </c>
       <c r="W14" t="n">
-        <v>2163.093791972536</v>
+        <v>2455.406681551136</v>
       </c>
       <c r="X14" t="n">
-        <v>1743.951328551846</v>
+        <v>2455.406681551136</v>
       </c>
       <c r="Y14" t="n">
-        <v>1335.6652048515</v>
+        <v>2047.120557850789</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>97.32014645294097</v>
       </c>
       <c r="H15" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I15" t="n">
-        <v>95.2507358131848</v>
+        <v>95.25073581318485</v>
       </c>
       <c r="J15" t="n">
-        <v>448.8296961642712</v>
+        <v>448.8296961642713</v>
       </c>
       <c r="K15" t="n">
-        <v>498.4305843758171</v>
+        <v>1174.144829829621</v>
       </c>
       <c r="L15" t="n">
-        <v>565.1250997060334</v>
+        <v>1246.494485869511</v>
       </c>
       <c r="M15" t="n">
-        <v>642.9544533193372</v>
+        <v>1324.323839482815</v>
       </c>
       <c r="N15" t="n">
-        <v>722.8437183343156</v>
+        <v>1404.213104497794</v>
       </c>
       <c r="O15" t="n">
-        <v>795.9267881882344</v>
+        <v>1477.296174351713</v>
       </c>
       <c r="P15" t="n">
-        <v>995.2128423946591</v>
+        <v>1535.951781026735</v>
       </c>
       <c r="Q15" t="n">
         <v>1575.161500735261</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1019.512670203673</v>
+        <v>1029.116386968823</v>
       </c>
       <c r="C16" t="n">
-        <v>846.9509586868982</v>
+        <v>856.5546754520475</v>
       </c>
       <c r="D16" t="n">
-        <v>681.0729658884209</v>
+        <v>690.6766826535702</v>
       </c>
       <c r="E16" t="n">
-        <v>511.3149621391581</v>
+        <v>520.9186789043074</v>
       </c>
       <c r="F16" t="n">
-        <v>334.6079081009143</v>
+        <v>344.2116248660636</v>
       </c>
       <c r="G16" t="n">
-        <v>169.2793811045509</v>
+        <v>178.8830978697002</v>
       </c>
       <c r="H16" t="n">
         <v>139.369724879771</v>
       </c>
       <c r="I16" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="J16" t="n">
-        <v>163.3976231159127</v>
+        <v>163.3976231159128</v>
       </c>
       <c r="K16" t="n">
-        <v>468.0751373705502</v>
+        <v>468.0751373705504</v>
       </c>
       <c r="L16" t="n">
-        <v>924.5711147616717</v>
+        <v>924.5711147616721</v>
       </c>
       <c r="M16" t="n">
         <v>1424.42230167049</v>
       </c>
       <c r="N16" t="n">
-        <v>1906.088579918305</v>
+        <v>1906.088579918306</v>
       </c>
       <c r="O16" t="n">
-        <v>2362.157010674532</v>
+        <v>2362.157010674533</v>
       </c>
       <c r="P16" t="n">
-        <v>2740.809692597089</v>
+        <v>2740.80969259709</v>
       </c>
       <c r="Q16" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="R16" t="n">
-        <v>2920.962479862527</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="S16" t="n">
-        <v>2766.300091828339</v>
+        <v>2775.903808593488</v>
       </c>
       <c r="T16" t="n">
-        <v>2521.543295857432</v>
+        <v>2531.147012622581</v>
       </c>
       <c r="U16" t="n">
-        <v>2243.124626818418</v>
+        <v>2252.728343583567</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.169118688848</v>
+        <v>1965.772835453997</v>
       </c>
       <c r="W16" t="n">
-        <v>1684.14271427514</v>
+        <v>1693.746431040289</v>
       </c>
       <c r="X16" t="n">
-        <v>1438.750959608552</v>
+        <v>1448.354676373702</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.33128892266</v>
+        <v>1220.93500568781</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>858.9866625527862</v>
+        <v>788.682602065213</v>
       </c>
       <c r="C17" t="n">
-        <v>858.9866625527862</v>
+        <v>788.682602065213</v>
       </c>
       <c r="D17" t="n">
-        <v>858.9866625527862</v>
+        <v>788.682602065213</v>
       </c>
       <c r="E17" t="n">
-        <v>858.9866625527862</v>
+        <v>742.5547303123708</v>
       </c>
       <c r="F17" t="n">
         <v>742.5547303123708</v>
@@ -5509,58 +5509,58 @@
         <v>341.7426504804986</v>
       </c>
       <c r="H17" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I17" t="n">
-        <v>80.33562959155969</v>
+        <v>80.33562959155972</v>
       </c>
       <c r="J17" t="n">
-        <v>129.0612326618628</v>
+        <v>564.3159201147806</v>
       </c>
       <c r="K17" t="n">
-        <v>202.0882808546675</v>
+        <v>1000.971529522367</v>
       </c>
       <c r="L17" t="n">
-        <v>927.4034145200172</v>
+        <v>1091.568040298866</v>
       </c>
       <c r="M17" t="n">
-        <v>1028.209488837676</v>
+        <v>1192.374114616524</v>
       </c>
       <c r="N17" t="n">
-        <v>1753.524622503025</v>
+        <v>1294.811336606148</v>
       </c>
       <c r="O17" t="n">
-        <v>2478.839756168375</v>
+        <v>1391.539900553323</v>
       </c>
       <c r="P17" t="n">
-        <v>2832.507884930324</v>
+        <v>2116.855034218673</v>
       </c>
       <c r="Q17" t="n">
-        <v>2894.503695985664</v>
+        <v>2725.349631232608</v>
       </c>
       <c r="R17" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="S17" t="n">
-        <v>2930.566196627676</v>
+        <v>2860.262136140102</v>
       </c>
       <c r="T17" t="n">
-        <v>2713.063096888357</v>
+        <v>2642.759036400783</v>
       </c>
       <c r="U17" t="n">
-        <v>2453.887654328963</v>
+        <v>2383.583593841389</v>
       </c>
       <c r="V17" t="n">
-        <v>2091.270704262789</v>
+        <v>2020.966643775216</v>
       </c>
       <c r="W17" t="n">
-        <v>1686.415249673822</v>
+        <v>1616.111189186249</v>
       </c>
       <c r="X17" t="n">
-        <v>1267.272786253133</v>
+        <v>1196.96872576556</v>
       </c>
       <c r="Y17" t="n">
-        <v>858.9866625527862</v>
+        <v>788.682602065213</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>97.32014645294097</v>
       </c>
       <c r="H18" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I18" t="n">
-        <v>95.25073581318483</v>
+        <v>95.25073581318485</v>
       </c>
       <c r="J18" t="n">
-        <v>124.271371198059</v>
+        <v>448.8296961642713</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8722594096049</v>
+        <v>498.4305843758173</v>
       </c>
       <c r="L18" t="n">
-        <v>697.0077369735236</v>
+        <v>565.1250997060339</v>
       </c>
       <c r="M18" t="n">
-        <v>774.8370905868275</v>
+        <v>642.9544533193379</v>
       </c>
       <c r="N18" t="n">
-        <v>854.7263556018059</v>
+        <v>722.8437183343165</v>
       </c>
       <c r="O18" t="n">
-        <v>927.8094254557249</v>
+        <v>795.9267881882354</v>
       </c>
       <c r="P18" t="n">
-        <v>1653.124559121075</v>
+        <v>995.212842394659</v>
       </c>
       <c r="Q18" t="n">
-        <v>1692.334278829601</v>
+        <v>1575.161500735261</v>
       </c>
       <c r="R18" t="n">
         <v>1711.405636450337</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1046.410718956782</v>
+        <v>1029.116386968823</v>
       </c>
       <c r="C19" t="n">
-        <v>873.8490074400073</v>
+        <v>856.5546754520475</v>
       </c>
       <c r="D19" t="n">
-        <v>707.97101464153</v>
+        <v>690.6766826535702</v>
       </c>
       <c r="E19" t="n">
-        <v>538.2130108922672</v>
+        <v>618.9714118394849</v>
       </c>
       <c r="F19" t="n">
-        <v>361.5059568540235</v>
+        <v>442.264357801241</v>
       </c>
       <c r="G19" t="n">
-        <v>196.17742985766</v>
+        <v>276.9358308048776</v>
       </c>
       <c r="H19" t="n">
-        <v>58.61132393255352</v>
+        <v>139.369724879771</v>
       </c>
       <c r="I19" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="J19" t="n">
-        <v>163.3976231159128</v>
+        <v>163.3976231159127</v>
       </c>
       <c r="K19" t="n">
-        <v>468.0751373705498</v>
+        <v>468.0751373705504</v>
       </c>
       <c r="L19" t="n">
-        <v>924.5711147616715</v>
+        <v>924.5711147616721</v>
       </c>
       <c r="M19" t="n">
-        <v>1424.422301670489</v>
+        <v>1424.42230167049</v>
       </c>
       <c r="N19" t="n">
-        <v>1906.088579918305</v>
+        <v>1906.088579918306</v>
       </c>
       <c r="O19" t="n">
         <v>2362.157010674532</v>
@@ -5694,31 +5694,31 @@
         <v>2740.809692597089</v>
       </c>
       <c r="Q19" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="R19" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="S19" t="n">
-        <v>2793.198140581448</v>
+        <v>2775.903808593488</v>
       </c>
       <c r="T19" t="n">
-        <v>2548.441344610541</v>
+        <v>2531.147012622581</v>
       </c>
       <c r="U19" t="n">
-        <v>2270.022675571527</v>
+        <v>2252.728343583567</v>
       </c>
       <c r="V19" t="n">
-        <v>1983.067167441957</v>
+        <v>1965.772835453997</v>
       </c>
       <c r="W19" t="n">
-        <v>1711.040763028249</v>
+        <v>1693.746431040289</v>
       </c>
       <c r="X19" t="n">
-        <v>1465.649008361661</v>
+        <v>1448.354676373702</v>
       </c>
       <c r="Y19" t="n">
-        <v>1238.22933767577</v>
+        <v>1220.93500568781</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1271.982584432766</v>
+        <v>1054.479484693447</v>
       </c>
       <c r="C20" t="n">
-        <v>833.840111616189</v>
+        <v>1054.479484693447</v>
       </c>
       <c r="D20" t="n">
-        <v>397.9303267906335</v>
+        <v>920.2534983650506</v>
       </c>
       <c r="E20" t="n">
-        <v>58.61132393255352</v>
+        <v>486.4787535233458</v>
       </c>
       <c r="F20" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="G20" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="H20" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I20" t="n">
-        <v>80.33562959155969</v>
+        <v>80.33562959155972</v>
       </c>
       <c r="J20" t="n">
-        <v>275.6563958570172</v>
+        <v>129.0612326618628</v>
       </c>
       <c r="K20" t="n">
-        <v>1000.971529522367</v>
+        <v>854.3763663272127</v>
       </c>
       <c r="L20" t="n">
-        <v>1091.568040298866</v>
+        <v>1579.691499992563</v>
       </c>
       <c r="M20" t="n">
-        <v>1192.374114616524</v>
+        <v>1680.497574310221</v>
       </c>
       <c r="N20" t="n">
-        <v>1294.811336606148</v>
+        <v>1782.934796299845</v>
       </c>
       <c r="O20" t="n">
-        <v>1391.539900553323</v>
+        <v>2508.249929965195</v>
       </c>
       <c r="P20" t="n">
-        <v>2116.855034218672</v>
+        <v>2590.80552139969</v>
       </c>
       <c r="Q20" t="n">
-        <v>2725.349631232607</v>
+        <v>2894.503695985665</v>
       </c>
       <c r="R20" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="S20" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="T20" t="n">
-        <v>2930.566196627676</v>
+        <v>2713.063096888357</v>
       </c>
       <c r="U20" t="n">
-        <v>2930.566196627676</v>
+        <v>2713.063096888357</v>
       </c>
       <c r="V20" t="n">
-        <v>2930.566196627676</v>
+        <v>2713.063096888357</v>
       </c>
       <c r="W20" t="n">
-        <v>2525.710742038709</v>
+        <v>2308.20764229939</v>
       </c>
       <c r="X20" t="n">
-        <v>2106.56827861802</v>
+        <v>1889.065178878701</v>
       </c>
       <c r="Y20" t="n">
-        <v>1698.282154917673</v>
+        <v>1480.779055178355</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1780.603394731492</v>
+        <v>561.4428345541542</v>
       </c>
       <c r="C21" t="n">
-        <v>1674.146933568135</v>
+        <v>454.9863733907964</v>
       </c>
       <c r="D21" t="n">
-        <v>1579.056644714688</v>
+        <v>359.8960845373497</v>
       </c>
       <c r="E21" t="n">
-        <v>1484.936230041642</v>
+        <v>265.7756698643034</v>
       </c>
       <c r="F21" t="n">
-        <v>1401.552391657803</v>
+        <v>182.391831480465</v>
       </c>
       <c r="G21" t="n">
-        <v>1316.480706630279</v>
+        <v>97.32014645294097</v>
       </c>
       <c r="H21" t="n">
-        <v>1277.771884109892</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I21" t="n">
-        <v>1314.411295990523</v>
+        <v>95.25073581318485</v>
       </c>
       <c r="J21" t="n">
-        <v>1667.99025634161</v>
+        <v>448.8296961642713</v>
       </c>
       <c r="K21" t="n">
-        <v>1717.591144553156</v>
+        <v>1174.144829829621</v>
       </c>
       <c r="L21" t="n">
-        <v>1784.285659883372</v>
+        <v>1246.494485869511</v>
       </c>
       <c r="M21" t="n">
-        <v>1862.115013496676</v>
+        <v>1324.323839482815</v>
       </c>
       <c r="N21" t="n">
-        <v>1942.004278511655</v>
+        <v>1404.213104497794</v>
       </c>
       <c r="O21" t="n">
-        <v>2015.087348365573</v>
+        <v>1477.296174351713</v>
       </c>
       <c r="P21" t="n">
-        <v>2214.373402571997</v>
+        <v>1535.951781026735</v>
       </c>
       <c r="Q21" t="n">
-        <v>2794.3220609126</v>
+        <v>1575.161500735261</v>
       </c>
       <c r="R21" t="n">
-        <v>2930.566196627676</v>
+        <v>1711.405636450337</v>
       </c>
       <c r="S21" t="n">
-        <v>2872.93211403723</v>
+        <v>1653.771553859892</v>
       </c>
       <c r="T21" t="n">
-        <v>2744.016711267316</v>
+        <v>1524.856151089978</v>
       </c>
       <c r="U21" t="n">
-        <v>2567.700782997962</v>
+        <v>1348.540222820623</v>
       </c>
       <c r="V21" t="n">
-        <v>2368.583265059961</v>
+        <v>1149.422704882623</v>
       </c>
       <c r="W21" t="n">
-        <v>2183.260510793155</v>
+        <v>964.0999506158166</v>
       </c>
       <c r="X21" t="n">
-        <v>2028.393075032035</v>
+        <v>809.2325148546965</v>
       </c>
       <c r="Y21" t="n">
-        <v>1901.907295811256</v>
+        <v>682.7467356339173</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1029.116386968822</v>
+        <v>1029.116386968823</v>
       </c>
       <c r="C22" t="n">
-        <v>856.5546754520466</v>
+        <v>856.5546754520479</v>
       </c>
       <c r="D22" t="n">
-        <v>690.6766826535693</v>
+        <v>690.6766826535707</v>
       </c>
       <c r="E22" t="n">
-        <v>520.9186789043065</v>
+        <v>520.9186789043079</v>
       </c>
       <c r="F22" t="n">
-        <v>344.2116248660627</v>
+        <v>344.2116248660641</v>
       </c>
       <c r="G22" t="n">
-        <v>178.8830978696993</v>
+        <v>178.8830978697006</v>
       </c>
       <c r="H22" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="I22" t="n">
-        <v>58.61132393255352</v>
+        <v>58.61132393255353</v>
       </c>
       <c r="J22" t="n">
-        <v>163.3976231159123</v>
+        <v>163.3976231159128</v>
       </c>
       <c r="K22" t="n">
-        <v>468.0751373705498</v>
+        <v>468.0751373705504</v>
       </c>
       <c r="L22" t="n">
-        <v>924.5711147616712</v>
+        <v>924.571114761672</v>
       </c>
       <c r="M22" t="n">
-        <v>1424.422301670489</v>
+        <v>1424.42230167049</v>
       </c>
       <c r="N22" t="n">
-        <v>1906.088579918305</v>
+        <v>1906.088579918306</v>
       </c>
       <c r="O22" t="n">
-        <v>2362.157010674532</v>
+        <v>2362.157010674533</v>
       </c>
       <c r="P22" t="n">
-        <v>2740.809692597089</v>
+        <v>2740.80969259709</v>
       </c>
       <c r="Q22" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="R22" t="n">
-        <v>2930.566196627676</v>
+        <v>2930.566196627677</v>
       </c>
       <c r="S22" t="n">
-        <v>2775.903808593487</v>
+        <v>2775.903808593489</v>
       </c>
       <c r="T22" t="n">
-        <v>2531.14701262258</v>
+        <v>2531.147012622582</v>
       </c>
       <c r="U22" t="n">
-        <v>2252.728343583566</v>
+        <v>2252.728343583567</v>
       </c>
       <c r="V22" t="n">
-        <v>1965.772835453997</v>
+        <v>1965.772835453998</v>
       </c>
       <c r="W22" t="n">
-        <v>1693.746431040288</v>
+        <v>1693.74643104029</v>
       </c>
       <c r="X22" t="n">
-        <v>1448.354676373701</v>
+        <v>1448.354676373702</v>
       </c>
       <c r="Y22" t="n">
-        <v>1220.935005687809</v>
+        <v>1220.93500568781</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2521.430103832037</v>
+        <v>2521.430103832033</v>
       </c>
       <c r="C23" t="n">
-        <v>2083.28763101546</v>
+        <v>2083.287631015457</v>
       </c>
       <c r="D23" t="n">
-        <v>1647.377846189905</v>
+        <v>1647.377846189901</v>
       </c>
       <c r="E23" t="n">
-        <v>1213.6031013482</v>
+        <v>1213.603101348196</v>
       </c>
       <c r="F23" t="n">
-        <v>785.7356717574071</v>
+        <v>785.7356717574044</v>
       </c>
       <c r="G23" t="n">
-        <v>384.9235919255343</v>
+        <v>384.9235919255332</v>
       </c>
       <c r="H23" t="n">
         <v>101.7922653775881</v>
@@ -5989,52 +5989,52 @@
         <v>123.5165710365943</v>
       </c>
       <c r="J23" t="n">
-        <v>172.2421741068974</v>
+        <v>607.4968615598153</v>
       </c>
       <c r="K23" t="n">
-        <v>1079.61951425788</v>
+        <v>1514.874201710798</v>
       </c>
       <c r="L23" t="n">
-        <v>2084.88511337775</v>
+        <v>1605.470712487297</v>
       </c>
       <c r="M23" t="n">
-        <v>2185.691187695408</v>
+        <v>1706.276786804955</v>
       </c>
       <c r="N23" t="n">
-        <v>2288.128409685032</v>
+        <v>2288.12840968503</v>
       </c>
       <c r="O23" t="n">
-        <v>3365.036640202514</v>
+        <v>3365.036640202512</v>
       </c>
       <c r="P23" t="n">
-        <v>4275.902106470405</v>
+        <v>4275.902106470403</v>
       </c>
       <c r="Q23" t="n">
-        <v>4884.396703484339</v>
+        <v>4884.396703484338</v>
       </c>
       <c r="R23" t="n">
-        <v>5089.613268879407</v>
+        <v>5089.613268879406</v>
       </c>
       <c r="S23" t="n">
-        <v>5019.309208391833</v>
+        <v>5019.309208391831</v>
       </c>
       <c r="T23" t="n">
-        <v>4801.806108652514</v>
+        <v>4801.806108652511</v>
       </c>
       <c r="U23" t="n">
-        <v>4542.63066609312</v>
+        <v>4542.630666093117</v>
       </c>
       <c r="V23" t="n">
-        <v>4180.013716026947</v>
+        <v>4180.013716026943</v>
       </c>
       <c r="W23" t="n">
-        <v>3775.15826143798</v>
+        <v>3775.158261437977</v>
       </c>
       <c r="X23" t="n">
-        <v>3356.015798017291</v>
+        <v>3356.015798017288</v>
       </c>
       <c r="Y23" t="n">
-        <v>2947.729674316945</v>
+        <v>2947.729674316941</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>492.0106376093059</v>
       </c>
       <c r="K24" t="n">
-        <v>541.6115258208519</v>
+        <v>541.611525820852</v>
       </c>
       <c r="L24" t="n">
-        <v>608.3060411510685</v>
+        <v>608.3060411510686</v>
       </c>
       <c r="M24" t="n">
-        <v>686.1353947643723</v>
+        <v>686.1353947643726</v>
       </c>
       <c r="N24" t="n">
-        <v>766.0246597793507</v>
+        <v>766.0246597793511</v>
       </c>
       <c r="O24" t="n">
-        <v>839.1077296332696</v>
+        <v>839.10772963327</v>
       </c>
       <c r="P24" t="n">
         <v>1038.393783839693</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1062.693611648708</v>
+        <v>1062.693611648709</v>
       </c>
       <c r="C25" t="n">
-        <v>890.1319001319331</v>
+        <v>890.1319001319335</v>
       </c>
       <c r="D25" t="n">
-        <v>724.2539073334558</v>
+        <v>724.2539073334563</v>
       </c>
       <c r="E25" t="n">
-        <v>554.495903584193</v>
+        <v>554.4959035841935</v>
       </c>
       <c r="F25" t="n">
-        <v>377.7888495459492</v>
+        <v>377.7888495459497</v>
       </c>
       <c r="G25" t="n">
-        <v>212.4603225495858</v>
+        <v>212.4603225495862</v>
       </c>
       <c r="H25" t="n">
-        <v>101.7922653775881</v>
+        <v>182.5506663248056</v>
       </c>
       <c r="I25" t="n">
         <v>101.7922653775881</v>
@@ -6159,7 +6159,7 @@
         <v>1467.603243115524</v>
       </c>
       <c r="N25" t="n">
-        <v>1949.26952136334</v>
+        <v>1949.269521363341</v>
       </c>
       <c r="O25" t="n">
         <v>2405.337952119567</v>
@@ -6168,10 +6168,10 @@
         <v>2783.990634042124</v>
       </c>
       <c r="Q25" t="n">
-        <v>2973.747138072711</v>
+        <v>2973.747138072712</v>
       </c>
       <c r="R25" t="n">
-        <v>2964.143421307562</v>
+        <v>2964.143421307563</v>
       </c>
       <c r="S25" t="n">
         <v>2809.481033273374</v>
@@ -6183,16 +6183,16 @@
         <v>2286.305568263453</v>
       </c>
       <c r="V25" t="n">
-        <v>1999.350060133883</v>
+        <v>1999.350060133884</v>
       </c>
       <c r="W25" t="n">
         <v>1727.323655720175</v>
       </c>
       <c r="X25" t="n">
-        <v>1481.931901053587</v>
+        <v>1481.931901053588</v>
       </c>
       <c r="Y25" t="n">
-        <v>1254.512230367695</v>
+        <v>1254.512230367696</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1213.6031013482</v>
       </c>
       <c r="F26" t="n">
-        <v>785.7356717574075</v>
+        <v>785.7356717574071</v>
       </c>
       <c r="G26" t="n">
-        <v>384.9235919255354</v>
+        <v>384.9235919255343</v>
       </c>
       <c r="H26" t="n">
         <v>101.7922653775881</v>
@@ -6232,22 +6232,22 @@
         <v>1514.874201710798</v>
       </c>
       <c r="L26" t="n">
-        <v>2084.88511337775</v>
+        <v>2680.530678740156</v>
       </c>
       <c r="M26" t="n">
-        <v>2185.691187695408</v>
+        <v>2781.336753057815</v>
       </c>
       <c r="N26" t="n">
-        <v>2288.128409685032</v>
+        <v>2883.773975047439</v>
       </c>
       <c r="O26" t="n">
-        <v>3365.036640202514</v>
+        <v>3960.68220556492</v>
       </c>
       <c r="P26" t="n">
-        <v>4275.902106470405</v>
+        <v>4871.547671832811</v>
       </c>
       <c r="Q26" t="n">
-        <v>4884.396703484339</v>
+        <v>5053.550768237395</v>
       </c>
       <c r="R26" t="n">
         <v>5089.613268879407</v>
@@ -6308,22 +6308,22 @@
         <v>492.0106376093059</v>
       </c>
       <c r="K27" t="n">
-        <v>541.6115258208519</v>
+        <v>1222.345045891229</v>
       </c>
       <c r="L27" t="n">
-        <v>608.3060411510685</v>
+        <v>1289.675427314546</v>
       </c>
       <c r="M27" t="n">
-        <v>686.1353947643723</v>
+        <v>1367.504780927849</v>
       </c>
       <c r="N27" t="n">
-        <v>766.0246597793507</v>
+        <v>1447.394045942828</v>
       </c>
       <c r="O27" t="n">
-        <v>839.1077296332696</v>
+        <v>1520.477115796747</v>
       </c>
       <c r="P27" t="n">
-        <v>1038.393783839693</v>
+        <v>1579.132722471769</v>
       </c>
       <c r="Q27" t="n">
         <v>1618.342442180296</v>
@@ -6363,22 +6363,22 @@
         <v>1072.297328413857</v>
       </c>
       <c r="C28" t="n">
-        <v>899.735616897082</v>
+        <v>899.7356168970824</v>
       </c>
       <c r="D28" t="n">
-        <v>733.8576240986047</v>
+        <v>733.8576240986051</v>
       </c>
       <c r="E28" t="n">
-        <v>564.0996203493419</v>
+        <v>564.0996203493423</v>
       </c>
       <c r="F28" t="n">
-        <v>387.3925663110981</v>
+        <v>387.3925663110986</v>
       </c>
       <c r="G28" t="n">
-        <v>222.0640393147347</v>
+        <v>320.1167722499122</v>
       </c>
       <c r="H28" t="n">
-        <v>101.7922653775881</v>
+        <v>182.5506663248057</v>
       </c>
       <c r="I28" t="n">
         <v>101.7922653775881</v>
@@ -6396,7 +6396,7 @@
         <v>1467.603243115524</v>
       </c>
       <c r="N28" t="n">
-        <v>1949.26952136334</v>
+        <v>1949.269521363341</v>
       </c>
       <c r="O28" t="n">
         <v>2405.337952119567</v>
@@ -6405,10 +6405,10 @@
         <v>2783.990634042124</v>
       </c>
       <c r="Q28" t="n">
-        <v>2973.747138072711</v>
+        <v>2973.747138072712</v>
       </c>
       <c r="R28" t="n">
-        <v>2973.747138072711</v>
+        <v>2973.747138072712</v>
       </c>
       <c r="S28" t="n">
         <v>2819.084750038523</v>
@@ -6429,7 +6429,7 @@
         <v>1491.535617818736</v>
       </c>
       <c r="Y28" t="n">
-        <v>1264.115947132844</v>
+        <v>1264.115947132845</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>2083.287631015458</v>
       </c>
       <c r="D29" t="n">
-        <v>1647.377846189903</v>
+        <v>1647.377846189902</v>
       </c>
       <c r="E29" t="n">
-        <v>1213.603101348198</v>
+        <v>1213.603101348197</v>
       </c>
       <c r="F29" t="n">
-        <v>785.7356717574054</v>
+        <v>785.7356717574053</v>
       </c>
       <c r="G29" t="n">
         <v>384.9235919255332</v>
@@ -6463,22 +6463,22 @@
         <v>123.5165710365943</v>
       </c>
       <c r="J29" t="n">
-        <v>607.4968615598153</v>
+        <v>172.2421741068974</v>
       </c>
       <c r="K29" t="n">
-        <v>1514.874201710798</v>
+        <v>1079.61951425788</v>
       </c>
       <c r="L29" t="n">
-        <v>1605.470712487297</v>
+        <v>2245.275991287238</v>
       </c>
       <c r="M29" t="n">
-        <v>1706.276786804955</v>
+        <v>2346.082065604896</v>
       </c>
       <c r="N29" t="n">
-        <v>2934.444992231026</v>
+        <v>2448.519287594521</v>
       </c>
       <c r="O29" t="n">
-        <v>4011.353222748508</v>
+        <v>3525.427518112002</v>
       </c>
       <c r="P29" t="n">
         <v>4275.902106470405</v>
@@ -6545,22 +6545,22 @@
         <v>492.0106376093059</v>
       </c>
       <c r="K30" t="n">
-        <v>541.6115258208519</v>
+        <v>1222.345045891229</v>
       </c>
       <c r="L30" t="n">
-        <v>608.3060411510685</v>
+        <v>1289.675427314546</v>
       </c>
       <c r="M30" t="n">
-        <v>686.1353947643723</v>
+        <v>1367.504780927849</v>
       </c>
       <c r="N30" t="n">
-        <v>766.0246597793507</v>
+        <v>1447.394045942828</v>
       </c>
       <c r="O30" t="n">
-        <v>839.1077296332696</v>
+        <v>1520.477115796747</v>
       </c>
       <c r="P30" t="n">
-        <v>1038.393783839693</v>
+        <v>1579.132722471769</v>
       </c>
       <c r="Q30" t="n">
         <v>1618.342442180296</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1170.350061349035</v>
+        <v>1089.591660401817</v>
       </c>
       <c r="C31" t="n">
-        <v>997.7883498322595</v>
+        <v>917.029948885042</v>
       </c>
       <c r="D31" t="n">
-        <v>831.9103570337822</v>
+        <v>751.1519560865647</v>
       </c>
       <c r="E31" t="n">
-        <v>662.1523532845194</v>
+        <v>581.3939523373019</v>
       </c>
       <c r="F31" t="n">
-        <v>485.4452992462756</v>
+        <v>404.6868982990581</v>
       </c>
       <c r="G31" t="n">
-        <v>320.1167722499122</v>
+        <v>239.3583713026946</v>
       </c>
       <c r="H31" t="n">
-        <v>182.5506663248057</v>
+        <v>101.7922653775881</v>
       </c>
       <c r="I31" t="n">
         <v>101.7922653775881</v>
@@ -6633,7 +6633,7 @@
         <v>1467.603243115524</v>
       </c>
       <c r="N31" t="n">
-        <v>1949.26952136334</v>
+        <v>1949.269521363341</v>
       </c>
       <c r="O31" t="n">
         <v>2405.337952119567</v>
@@ -6642,31 +6642,31 @@
         <v>2783.990634042124</v>
       </c>
       <c r="Q31" t="n">
-        <v>2973.747138072711</v>
+        <v>2973.747138072712</v>
       </c>
       <c r="R31" t="n">
-        <v>2964.143421307562</v>
+        <v>2973.747138072712</v>
       </c>
       <c r="S31" t="n">
-        <v>2809.481033273374</v>
+        <v>2819.084750038523</v>
       </c>
       <c r="T31" t="n">
-        <v>2564.724237302467</v>
+        <v>2574.327954067616</v>
       </c>
       <c r="U31" t="n">
-        <v>2286.305568263453</v>
+        <v>2313.203617016562</v>
       </c>
       <c r="V31" t="n">
-        <v>2107.00650983421</v>
+        <v>2026.248108886992</v>
       </c>
       <c r="W31" t="n">
-        <v>1834.980105420501</v>
+        <v>1754.221704473284</v>
       </c>
       <c r="X31" t="n">
-        <v>1589.588350753914</v>
+        <v>1508.829949806696</v>
       </c>
       <c r="Y31" t="n">
-        <v>1362.168680068022</v>
+        <v>1281.410279120804</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>123.5165710365943</v>
       </c>
       <c r="J32" t="n">
-        <v>172.2421741068974</v>
+        <v>607.4968615598153</v>
       </c>
       <c r="K32" t="n">
-        <v>245.2692222997022</v>
+        <v>1514.874201710798</v>
       </c>
       <c r="L32" t="n">
-        <v>1410.92569932906</v>
+        <v>2680.530678740156</v>
       </c>
       <c r="M32" t="n">
-        <v>2668.77960885727</v>
+        <v>2781.336753057815</v>
       </c>
       <c r="N32" t="n">
-        <v>3896.94781428334</v>
+        <v>2883.773975047439</v>
       </c>
       <c r="O32" t="n">
-        <v>4908.99936574756</v>
+        <v>3365.036640202514</v>
       </c>
       <c r="P32" t="n">
-        <v>4991.554957182055</v>
+        <v>4275.902106470405</v>
       </c>
       <c r="Q32" t="n">
-        <v>5053.550768237395</v>
+        <v>4884.396703484339</v>
       </c>
       <c r="R32" t="n">
         <v>5089.613268879407</v>
@@ -6782,19 +6782,19 @@
         <v>492.0106376093059</v>
       </c>
       <c r="K33" t="n">
-        <v>541.6115258208519</v>
+        <v>541.611525820852</v>
       </c>
       <c r="L33" t="n">
-        <v>608.3060411510685</v>
+        <v>608.3060411510686</v>
       </c>
       <c r="M33" t="n">
-        <v>686.1353947643723</v>
+        <v>686.1353947643726</v>
       </c>
       <c r="N33" t="n">
-        <v>766.0246597793507</v>
+        <v>766.0246597793511</v>
       </c>
       <c r="O33" t="n">
-        <v>839.1077296332696</v>
+        <v>839.10772963327</v>
       </c>
       <c r="P33" t="n">
         <v>1038.393783839693</v>
@@ -6837,22 +6837,22 @@
         <v>1072.297328413857</v>
       </c>
       <c r="C34" t="n">
-        <v>899.735616897082</v>
+        <v>899.7356168970824</v>
       </c>
       <c r="D34" t="n">
-        <v>733.8576240986047</v>
+        <v>831.9103570337822</v>
       </c>
       <c r="E34" t="n">
-        <v>564.0996203493419</v>
+        <v>662.1523532845194</v>
       </c>
       <c r="F34" t="n">
-        <v>387.3925663110981</v>
+        <v>485.4452992462756</v>
       </c>
       <c r="G34" t="n">
-        <v>222.0640393147347</v>
+        <v>320.1167722499122</v>
       </c>
       <c r="H34" t="n">
-        <v>101.7922653775881</v>
+        <v>182.5506663248057</v>
       </c>
       <c r="I34" t="n">
         <v>101.7922653775881</v>
@@ -6870,7 +6870,7 @@
         <v>1467.603243115524</v>
       </c>
       <c r="N34" t="n">
-        <v>1949.26952136334</v>
+        <v>1949.269521363341</v>
       </c>
       <c r="O34" t="n">
         <v>2405.337952119567</v>
@@ -6879,10 +6879,10 @@
         <v>2783.990634042124</v>
       </c>
       <c r="Q34" t="n">
-        <v>2973.747138072711</v>
+        <v>2973.747138072712</v>
       </c>
       <c r="R34" t="n">
-        <v>2973.747138072711</v>
+        <v>2973.747138072712</v>
       </c>
       <c r="S34" t="n">
         <v>2819.084750038523</v>
@@ -6903,7 +6903,7 @@
         <v>1491.535617818736</v>
       </c>
       <c r="Y34" t="n">
-        <v>1264.115947132844</v>
+        <v>1264.115947132845</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2516.219996428109</v>
+        <v>2260.924733635788</v>
       </c>
       <c r="C35" t="n">
-        <v>2078.077523611533</v>
+        <v>1822.782260819211</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.167738785977</v>
+        <v>1386.872475993656</v>
       </c>
       <c r="E35" t="n">
-        <v>1208.392993944273</v>
+        <v>953.0977311519509</v>
       </c>
       <c r="F35" t="n">
-        <v>780.5255643534804</v>
+        <v>525.2303015611587</v>
       </c>
       <c r="G35" t="n">
-        <v>379.7134845216083</v>
+        <v>379.7134845216082</v>
       </c>
       <c r="H35" t="n">
         <v>96.58215797366316</v>
@@ -6937,7 +6937,7 @@
         <v>118.3064636326693</v>
       </c>
       <c r="J35" t="n">
-        <v>602.2867541558902</v>
+        <v>602.2867541558903</v>
       </c>
       <c r="K35" t="n">
         <v>1509.664094306873</v>
@@ -6964,25 +6964,25 @@
         <v>4829.107898683158</v>
       </c>
       <c r="S35" t="n">
-        <v>4829.107898683158</v>
+        <v>4758.803838195584</v>
       </c>
       <c r="T35" t="n">
-        <v>4796.596001248587</v>
+        <v>4541.300738456265</v>
       </c>
       <c r="U35" t="n">
-        <v>4537.420558689193</v>
+        <v>4282.125295896872</v>
       </c>
       <c r="V35" t="n">
-        <v>4174.803608623019</v>
+        <v>3919.508345830698</v>
       </c>
       <c r="W35" t="n">
-        <v>3769.948154034053</v>
+        <v>3514.652891241732</v>
       </c>
       <c r="X35" t="n">
-        <v>3350.805690613364</v>
+        <v>3095.510427821042</v>
       </c>
       <c r="Y35" t="n">
-        <v>2942.519566913017</v>
+        <v>2687.224304120696</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>486.8005302053809</v>
       </c>
       <c r="K36" t="n">
-        <v>1217.134938487304</v>
+        <v>536.401418416927</v>
       </c>
       <c r="L36" t="n">
-        <v>1283.829453817521</v>
+        <v>603.0959337471435</v>
       </c>
       <c r="M36" t="n">
-        <v>1361.658807430824</v>
+        <v>680.9252873604474</v>
       </c>
       <c r="N36" t="n">
-        <v>1441.548072445803</v>
+        <v>760.814552375426</v>
       </c>
       <c r="O36" t="n">
-        <v>1515.267008392822</v>
+        <v>833.897622229345</v>
       </c>
       <c r="P36" t="n">
-        <v>1573.922615067844</v>
+        <v>1033.183676435769</v>
       </c>
       <c r="Q36" t="n">
         <v>1613.132334776371</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1067.087221009932</v>
+        <v>1057.483504244783</v>
       </c>
       <c r="C37" t="n">
-        <v>894.5255094931568</v>
+        <v>884.9217927280084</v>
       </c>
       <c r="D37" t="n">
-        <v>728.6475166946796</v>
+        <v>719.0437999295311</v>
       </c>
       <c r="E37" t="n">
-        <v>558.8895129454168</v>
+        <v>549.2857961802683</v>
       </c>
       <c r="F37" t="n">
-        <v>382.182458907173</v>
+        <v>372.5787421420246</v>
       </c>
       <c r="G37" t="n">
-        <v>216.8539319108095</v>
+        <v>207.2502151456611</v>
       </c>
       <c r="H37" t="n">
         <v>96.58215797366316</v>
@@ -7119,28 +7119,28 @@
         <v>2968.537030668786</v>
       </c>
       <c r="R37" t="n">
-        <v>2968.537030668786</v>
+        <v>2958.933313903638</v>
       </c>
       <c r="S37" t="n">
-        <v>2813.874642634597</v>
+        <v>2804.270925869449</v>
       </c>
       <c r="T37" t="n">
-        <v>2569.117846663691</v>
+        <v>2559.514129898542</v>
       </c>
       <c r="U37" t="n">
-        <v>2290.699177624676</v>
+        <v>2281.095460859528</v>
       </c>
       <c r="V37" t="n">
-        <v>2003.743669495107</v>
+        <v>1994.139952729958</v>
       </c>
       <c r="W37" t="n">
-        <v>1731.717265081398</v>
+        <v>1722.11354831625</v>
       </c>
       <c r="X37" t="n">
-        <v>1486.325510414811</v>
+        <v>1476.721793649662</v>
       </c>
       <c r="Y37" t="n">
-        <v>1258.905839728919</v>
+        <v>1249.302122963771</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2516.219996428109</v>
+        <v>2260.924733635788</v>
       </c>
       <c r="C38" t="n">
         <v>2078.077523611533</v>
@@ -7165,7 +7165,7 @@
         <v>780.5255643534804</v>
       </c>
       <c r="G38" t="n">
-        <v>379.7134845216083</v>
+        <v>379.7134845216082</v>
       </c>
       <c r="H38" t="n">
         <v>96.58215797366316</v>
@@ -7174,25 +7174,25 @@
         <v>118.3064636326693</v>
       </c>
       <c r="J38" t="n">
-        <v>167.0320667029724</v>
+        <v>602.2867541558903</v>
       </c>
       <c r="K38" t="n">
-        <v>240.0591148957772</v>
+        <v>675.3138023486952</v>
       </c>
       <c r="L38" t="n">
-        <v>1405.715591925135</v>
+        <v>765.910313125194</v>
       </c>
       <c r="M38" t="n">
-        <v>2600.919796849217</v>
+        <v>1961.114518049276</v>
       </c>
       <c r="N38" t="n">
-        <v>3796.124001773298</v>
+        <v>3156.318722973357</v>
       </c>
       <c r="O38" t="n">
-        <v>4479.339930798255</v>
+        <v>3253.047286920532</v>
       </c>
       <c r="P38" t="n">
-        <v>4561.895522232749</v>
+        <v>4015.396736274156</v>
       </c>
       <c r="Q38" t="n">
         <v>4623.89133328809</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3679.145096786976</v>
+        <v>599.4136685952637</v>
       </c>
       <c r="C39" t="n">
-        <v>3572.688635623618</v>
+        <v>492.9572074319061</v>
       </c>
       <c r="D39" t="n">
-        <v>3477.598346770171</v>
+        <v>397.8669185784593</v>
       </c>
       <c r="E39" t="n">
-        <v>3383.477932097125</v>
+        <v>303.746503905413</v>
       </c>
       <c r="F39" t="n">
-        <v>3300.094093713286</v>
+        <v>220.3626655215746</v>
       </c>
       <c r="G39" t="n">
-        <v>3215.022408685762</v>
+        <v>135.2909804940506</v>
       </c>
       <c r="H39" t="n">
-        <v>3176.313586165375</v>
+        <v>96.58215797366316</v>
       </c>
       <c r="I39" t="n">
-        <v>3212.952998046007</v>
+        <v>133.2215698542945</v>
       </c>
       <c r="J39" t="n">
-        <v>3566.531958397093</v>
+        <v>486.8005302053809</v>
       </c>
       <c r="K39" t="n">
-        <v>3616.132846608639</v>
+        <v>536.401418416927</v>
       </c>
       <c r="L39" t="n">
-        <v>3682.827361938855</v>
+        <v>603.0959337471435</v>
       </c>
       <c r="M39" t="n">
-        <v>3760.656715552159</v>
+        <v>680.9252873604474</v>
       </c>
       <c r="N39" t="n">
-        <v>3840.545980567138</v>
+        <v>760.814552375426</v>
       </c>
       <c r="O39" t="n">
-        <v>3913.629050421057</v>
+        <v>833.897622229345</v>
       </c>
       <c r="P39" t="n">
-        <v>4112.91510462748</v>
+        <v>1573.922615067844</v>
       </c>
       <c r="Q39" t="n">
-        <v>4692.863762968082</v>
+        <v>1613.132334776371</v>
       </c>
       <c r="R39" t="n">
-        <v>4829.107898683158</v>
+        <v>1749.376470491447</v>
       </c>
       <c r="S39" t="n">
-        <v>4771.473816092713</v>
+        <v>1691.742387901001</v>
       </c>
       <c r="T39" t="n">
-        <v>4642.558413322799</v>
+        <v>1562.826985131087</v>
       </c>
       <c r="U39" t="n">
-        <v>4466.242485053444</v>
+        <v>1386.511056861733</v>
       </c>
       <c r="V39" t="n">
-        <v>4267.124967115444</v>
+        <v>1187.393538923732</v>
       </c>
       <c r="W39" t="n">
-        <v>4081.802212848638</v>
+        <v>1002.070784656926</v>
       </c>
       <c r="X39" t="n">
-        <v>3926.934777087518</v>
+        <v>847.2033488958061</v>
       </c>
       <c r="Y39" t="n">
-        <v>3800.448997866739</v>
+        <v>720.7175696750269</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1067.087221009932</v>
+        <v>1084.381552997892</v>
       </c>
       <c r="C40" t="n">
-        <v>894.5255094931568</v>
+        <v>911.8198414811169</v>
       </c>
       <c r="D40" t="n">
-        <v>728.6475166946796</v>
+        <v>745.9418486826396</v>
       </c>
       <c r="E40" t="n">
-        <v>558.8895129454168</v>
+        <v>576.1838449333769</v>
       </c>
       <c r="F40" t="n">
-        <v>382.182458907173</v>
+        <v>399.4767908951331</v>
       </c>
       <c r="G40" t="n">
-        <v>216.8539319108095</v>
+        <v>234.1482638987697</v>
       </c>
       <c r="H40" t="n">
         <v>96.58215797366316</v>
@@ -7359,25 +7359,25 @@
         <v>2968.537030668786</v>
       </c>
       <c r="S40" t="n">
-        <v>2813.874642634597</v>
+        <v>2831.168974622557</v>
       </c>
       <c r="T40" t="n">
-        <v>2569.117846663691</v>
+        <v>2586.412178651651</v>
       </c>
       <c r="U40" t="n">
-        <v>2290.699177624676</v>
+        <v>2307.993509612636</v>
       </c>
       <c r="V40" t="n">
-        <v>2003.743669495107</v>
+        <v>2021.038001483067</v>
       </c>
       <c r="W40" t="n">
-        <v>1731.717265081398</v>
+        <v>1749.011597069358</v>
       </c>
       <c r="X40" t="n">
-        <v>1486.325510414811</v>
+        <v>1503.619842402771</v>
       </c>
       <c r="Y40" t="n">
-        <v>1258.905839728919</v>
+        <v>1276.200171716879</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2331.228794123362</v>
+        <v>2516.219996428109</v>
       </c>
       <c r="C41" t="n">
-        <v>1893.086321306786</v>
+        <v>2078.077523611533</v>
       </c>
       <c r="D41" t="n">
-        <v>1457.17653648123</v>
+        <v>1642.167738785977</v>
       </c>
       <c r="E41" t="n">
-        <v>1023.401791639525</v>
+        <v>1208.392993944273</v>
       </c>
       <c r="F41" t="n">
-        <v>595.5343620487329</v>
+        <v>780.5255643534804</v>
       </c>
       <c r="G41" t="n">
-        <v>194.7222822168607</v>
+        <v>379.7134845216082</v>
       </c>
       <c r="H41" t="n">
         <v>96.58215797366316</v>
@@ -7411,25 +7411,25 @@
         <v>118.3064636326693</v>
       </c>
       <c r="J41" t="n">
-        <v>602.2867541558902</v>
+        <v>167.0320667029725</v>
       </c>
       <c r="K41" t="n">
-        <v>1509.664094306873</v>
+        <v>240.0591148957773</v>
       </c>
       <c r="L41" t="n">
-        <v>2675.320571336231</v>
+        <v>1405.715591925135</v>
       </c>
       <c r="M41" t="n">
-        <v>2776.126645653889</v>
+        <v>2376.381560109749</v>
       </c>
       <c r="N41" t="n">
-        <v>3971.330850577971</v>
+        <v>3571.58576503383</v>
       </c>
       <c r="O41" t="n">
-        <v>4068.059414525145</v>
+        <v>4648.493995551311</v>
       </c>
       <c r="P41" t="n">
-        <v>4184.550801027211</v>
+        <v>4731.049586985806</v>
       </c>
       <c r="Q41" t="n">
         <v>4793.045398041147</v>
@@ -7438,25 +7438,25 @@
         <v>4829.107898683158</v>
       </c>
       <c r="S41" t="n">
-        <v>4829.107898683158</v>
+        <v>4758.803838195584</v>
       </c>
       <c r="T41" t="n">
-        <v>4611.604798943839</v>
+        <v>4541.300738456265</v>
       </c>
       <c r="U41" t="n">
-        <v>4352.429356384446</v>
+        <v>4282.125295896872</v>
       </c>
       <c r="V41" t="n">
-        <v>3989.812406318272</v>
+        <v>3919.508345830698</v>
       </c>
       <c r="W41" t="n">
-        <v>3584.956951729306</v>
+        <v>3514.652891241732</v>
       </c>
       <c r="X41" t="n">
-        <v>3165.814488308617</v>
+        <v>3095.510427821042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2757.52836460827</v>
+        <v>2687.224304120696</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>486.8005302053809</v>
       </c>
       <c r="K42" t="n">
-        <v>536.401418416927</v>
+        <v>1217.134938487304</v>
       </c>
       <c r="L42" t="n">
-        <v>603.0959337471434</v>
+        <v>1284.465319910621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.9252873604472</v>
+        <v>1362.294673523925</v>
       </c>
       <c r="N42" t="n">
-        <v>760.8145523754257</v>
+        <v>1442.183938538903</v>
       </c>
       <c r="O42" t="n">
-        <v>833.8976222293446</v>
+        <v>1515.267008392822</v>
       </c>
       <c r="P42" t="n">
-        <v>1033.183676435769</v>
+        <v>1573.922615067844</v>
       </c>
       <c r="Q42" t="n">
         <v>1613.132334776371</v>
@@ -7548,19 +7548,19 @@
         <v>1067.087221009932</v>
       </c>
       <c r="C43" t="n">
-        <v>894.5255094931568</v>
+        <v>894.5255094931573</v>
       </c>
       <c r="D43" t="n">
-        <v>728.6475166946796</v>
+        <v>728.64751669468</v>
       </c>
       <c r="E43" t="n">
-        <v>558.8895129454168</v>
+        <v>558.8895129454172</v>
       </c>
       <c r="F43" t="n">
-        <v>382.182458907173</v>
+        <v>382.1824589071734</v>
       </c>
       <c r="G43" t="n">
-        <v>216.8539319108095</v>
+        <v>216.85393191081</v>
       </c>
       <c r="H43" t="n">
         <v>96.58215797366316</v>
@@ -7596,25 +7596,25 @@
         <v>2968.537030668786</v>
       </c>
       <c r="S43" t="n">
-        <v>2813.874642634597</v>
+        <v>2813.874642634598</v>
       </c>
       <c r="T43" t="n">
         <v>2569.117846663691</v>
       </c>
       <c r="U43" t="n">
-        <v>2290.699177624676</v>
+        <v>2290.699177624677</v>
       </c>
       <c r="V43" t="n">
         <v>2003.743669495107</v>
       </c>
       <c r="W43" t="n">
-        <v>1731.717265081398</v>
+        <v>1731.717265081399</v>
       </c>
       <c r="X43" t="n">
         <v>1486.325510414811</v>
       </c>
       <c r="Y43" t="n">
-        <v>1258.905839728919</v>
+        <v>1258.90583972892</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2516.219996428109</v>
+        <v>2260.924733635788</v>
       </c>
       <c r="C44" t="n">
-        <v>2078.077523611533</v>
+        <v>1822.782260819211</v>
       </c>
       <c r="D44" t="n">
-        <v>1642.167738785977</v>
+        <v>1386.872475993656</v>
       </c>
       <c r="E44" t="n">
-        <v>1208.392993944273</v>
+        <v>953.0977311519509</v>
       </c>
       <c r="F44" t="n">
-        <v>780.5255643534804</v>
+        <v>525.2303015611587</v>
       </c>
       <c r="G44" t="n">
-        <v>379.7134845216083</v>
+        <v>379.7134845216082</v>
       </c>
       <c r="H44" t="n">
         <v>96.58215797366316</v>
@@ -7648,22 +7648,22 @@
         <v>118.3064636326693</v>
       </c>
       <c r="J44" t="n">
-        <v>602.2867541558902</v>
+        <v>602.2867541558903</v>
       </c>
       <c r="K44" t="n">
-        <v>1487.033140985539</v>
+        <v>1509.664094306873</v>
       </c>
       <c r="L44" t="n">
-        <v>2652.689618014897</v>
+        <v>1600.260605083372</v>
       </c>
       <c r="M44" t="n">
-        <v>2753.495692332556</v>
+        <v>1701.06667940103</v>
       </c>
       <c r="N44" t="n">
-        <v>2855.93291432218</v>
+        <v>2027.623039488783</v>
       </c>
       <c r="O44" t="n">
-        <v>3932.841144839661</v>
+        <v>3104.531270006265</v>
       </c>
       <c r="P44" t="n">
         <v>4015.396736274156</v>
@@ -7678,22 +7678,22 @@
         <v>4758.803838195584</v>
       </c>
       <c r="T44" t="n">
-        <v>4758.803838195584</v>
+        <v>4541.300738456265</v>
       </c>
       <c r="U44" t="n">
-        <v>4537.420558689193</v>
+        <v>4282.125295896872</v>
       </c>
       <c r="V44" t="n">
-        <v>4174.803608623019</v>
+        <v>3919.508345830698</v>
       </c>
       <c r="W44" t="n">
-        <v>3769.948154034053</v>
+        <v>3514.652891241732</v>
       </c>
       <c r="X44" t="n">
-        <v>3350.805690613364</v>
+        <v>3095.510427821042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2942.519566913017</v>
+        <v>2687.224304120696</v>
       </c>
     </row>
     <row r="45">
@@ -7733,16 +7733,16 @@
         <v>536.401418416927</v>
       </c>
       <c r="L45" t="n">
-        <v>603.0959337471434</v>
+        <v>603.0959337471435</v>
       </c>
       <c r="M45" t="n">
-        <v>680.9252873604472</v>
+        <v>680.9252873604474</v>
       </c>
       <c r="N45" t="n">
-        <v>760.8145523754257</v>
+        <v>760.814552375426</v>
       </c>
       <c r="O45" t="n">
-        <v>833.8976222293446</v>
+        <v>833.897622229345</v>
       </c>
       <c r="P45" t="n">
         <v>1033.183676435769</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1084.381552997892</v>
+        <v>1067.087221009932</v>
       </c>
       <c r="C46" t="n">
-        <v>911.8198414811169</v>
+        <v>894.5255094931573</v>
       </c>
       <c r="D46" t="n">
-        <v>745.9418486826396</v>
+        <v>728.64751669468</v>
       </c>
       <c r="E46" t="n">
-        <v>576.1838449333769</v>
+        <v>558.8895129454172</v>
       </c>
       <c r="F46" t="n">
-        <v>399.4767908951331</v>
+        <v>382.1824589071734</v>
       </c>
       <c r="G46" t="n">
-        <v>234.1482638987697</v>
+        <v>314.9066648459872</v>
       </c>
       <c r="H46" t="n">
-        <v>96.58215797366316</v>
+        <v>177.3405589208807</v>
       </c>
       <c r="I46" t="n">
         <v>96.58215797366316</v>
@@ -7833,25 +7833,25 @@
         <v>2968.537030668786</v>
       </c>
       <c r="S46" t="n">
-        <v>2831.168974622557</v>
+        <v>2813.874642634598</v>
       </c>
       <c r="T46" t="n">
-        <v>2586.412178651651</v>
+        <v>2569.117846663691</v>
       </c>
       <c r="U46" t="n">
-        <v>2307.993509612636</v>
+        <v>2290.699177624677</v>
       </c>
       <c r="V46" t="n">
-        <v>2021.038001483067</v>
+        <v>2003.743669495107</v>
       </c>
       <c r="W46" t="n">
-        <v>1749.011597069358</v>
+        <v>1731.717265081399</v>
       </c>
       <c r="X46" t="n">
-        <v>1503.619842402771</v>
+        <v>1486.325510414811</v>
       </c>
       <c r="Y46" t="n">
-        <v>1276.200171716879</v>
+        <v>1258.90583972892</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>20.13097499434639</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,16 +8218,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984396</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8458,25 +8458,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>316.389926674475</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>658.8768540126717</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>630.8172316643349</v>
       </c>
       <c r="N11" t="n">
         <v>629.1696077532583</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>269.8476043999333</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>649.2520628594498</v>
       </c>
       <c r="Q11" t="n">
-        <v>280.5261537939004</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>142.0509571024257</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>142.0509571024263</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>641.1299221099508</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>629.1696077532586</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>259.5349139543182</v>
+        <v>367.3015769846281</v>
       </c>
       <c r="P14" t="n">
-        <v>649.2520628594502</v>
+        <v>649.2520628594498</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,10 +9008,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>682.5396418725293</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>5.712263343104723</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>142.0509571024271</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>367.301576984628</v>
       </c>
       <c r="L17" t="n">
-        <v>641.1299221099507</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>629.1696077532583</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>634.9359290082577</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>273.8510478055096</v>
+        <v>649.2520628594498</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>461.0514770037396</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>673.3934616063916</v>
+        <v>142.0509571024257</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>148.0759224193479</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>658.8768540126716</v>
+        <v>658.8768540126719</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>641.1299221099507</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,16 +9415,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>634.935929008258</v>
       </c>
       <c r="P20" t="n">
-        <v>649.25206285945</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>244.1438015460958</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>682.5396418725293</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>5.712263343104723</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>142.0509571024259</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>923.9081700438092</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>484.2569705964154</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>142.0509571024259</v>
+        <v>142.0509571024254</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,7 +9880,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>484.2569705964172</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,10 +9895,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>121.2194801507512</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.6422889829291307</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,10 +9971,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>142.0509571024259</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>183.8316083711134</v>
+        <v>674.6656534584927</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10193,10 +10193,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.6422889829291307</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>142.0509571024259</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>924.5686742596417</v>
+        <v>388.4182840483836</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>142.0509571024259</v>
+        <v>142.0509571024254</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10591,7 +10591,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>226.3829677758881</v>
+        <v>226.3829677758877</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0.6422889829293581</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>142.0509571024256</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1105.452657178205</v>
@@ -10837,13 +10837,13 @@
         <v>1103.805033267129</v>
       </c>
       <c r="O38" t="n">
-        <v>592.4114798765477</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>686.6604625445743</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>142.0509571024249</v>
+        <v>688.2519052156333</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>878.6463574413685</v>
       </c>
       <c r="N41" t="n">
         <v>1103.805033267129</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>34.27858087633467</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.6422889829293581</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>142.0509571024261</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11299,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>819.9185238756002</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>226.3829677758877</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>142.0509571024261</v>
+        <v>142.0509571024256</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>279.1977441613059</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>69.60101988269828</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>51.73745424307251</v>
+        <v>215.3280687419259</v>
       </c>
       <c r="U11" t="n">
-        <v>256.5836881338</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>106.5798852033234</v>
+        <v>26.62906826557764</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>146.517305208383</v>
       </c>
       <c r="E14" t="n">
-        <v>299.0409303233553</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>396.8039590335534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>280.3000132824656</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>69.6010198826983</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>215.3280687419259</v>
@@ -23554,13 +23554,13 @@
         <v>256.5836881338</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5798852033234</v>
+        <v>97.07220560582559</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.5076795974972</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>383.770404357974</v>
       </c>
       <c r="F17" t="n">
-        <v>308.321142376873</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.60101988269828</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>97.07220560582563</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>79.95081693774533</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S19" t="n">
-        <v>17.12138866808087</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>298.6669605121876</v>
       </c>
       <c r="E20" t="n">
-        <v>93.51118456378856</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>396.8039590335534</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.60101988269828</v>
+        <v>69.60101988269827</v>
       </c>
       <c r="T20" t="n">
-        <v>215.3280687419259</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.5836881338</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>17.12138866808114</v>
+        <v>17.1213886680798</v>
       </c>
       <c r="I22" t="n">
         <v>79.95081693774533</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>26.62906826557776</v>
+        <v>106.5798852033226</v>
       </c>
       <c r="I25" t="n">
-        <v>79.95081693774533</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>97.07220560582529</v>
       </c>
       <c r="H28" t="n">
-        <v>17.12138866808039</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>79.95081693774533</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>79.95081693774533</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,10 +24894,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>17.12138866807993</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5798852033234</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>97.07220560582536</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>17.12138866808039</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>79.95081693774533</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>252.7423101643983</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.60101988269828</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>183.1412902817002</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>17.12138866808051</v>
+        <v>26.62906826557746</v>
       </c>
       <c r="I37" t="n">
         <v>79.95081693774533</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.507679597497207</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>252.7423101643983</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>252.7423101643982</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>17.12138866808051</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>79.95081693774533</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>17.12138866807999</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>252.7423101643983</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>183.1412902817</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>69.60101988269828</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>17.12138866808051</v>
+        <v>17.12138866808007</v>
       </c>
       <c r="I43" t="n">
         <v>79.95081693774533</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>252.7423101643983</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.3280687419259</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>37.41424142247308</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.0722056058254</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>79.95081693774533</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.507679597497207</v>
+        <v>9.507679597497198</v>
       </c>
       <c r="S46" t="n">
-        <v>17.12138866808044</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>479099.5284955528</v>
+        <v>479099.5284955529</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>704873.887427642</v>
+        <v>704873.8874276419</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>704873.8874276418</v>
+        <v>704873.887427642</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677632.50223029</v>
+        <v>677632.5022302902</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677632.50223029</v>
+        <v>677632.5022302901</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677632.50223029</v>
+        <v>677632.5022302902</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="C2" t="n">
-        <v>321688.3919342451</v>
+        <v>321688.391934245</v>
       </c>
       <c r="D2" t="n">
         <v>321688.3919342451</v>
@@ -26325,19 +26325,19 @@
         <v>220110.4128440627</v>
       </c>
       <c r="F2" t="n">
-        <v>220110.4128440626</v>
+        <v>220110.4128440627</v>
       </c>
       <c r="G2" t="n">
-        <v>220110.4128440626</v>
+        <v>220110.4128440627</v>
       </c>
       <c r="H2" t="n">
-        <v>220110.4128440626</v>
+        <v>220110.4128440627</v>
       </c>
       <c r="I2" t="n">
         <v>320153.641587317</v>
       </c>
       <c r="J2" t="n">
-        <v>320153.6415873171</v>
+        <v>320153.641587317</v>
       </c>
       <c r="K2" t="n">
         <v>320153.6415873172</v>
@@ -26352,10 +26352,10 @@
         <v>308082.6688538654</v>
       </c>
       <c r="O2" t="n">
-        <v>308082.6688538654</v>
+        <v>308082.6688538653</v>
       </c>
       <c r="P2" t="n">
-        <v>308082.6688538652</v>
+        <v>308082.6688538653</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>135335.0830805729</v>
+        <v>135335.0830805731</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>143533.9891250631</v>
+        <v>143533.989125063</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>57778.22661058721</v>
+        <v>57778.2266105872</v>
       </c>
       <c r="F4" t="n">
-        <v>57778.22661058724</v>
+        <v>57778.2266105872</v>
       </c>
       <c r="G4" t="n">
         <v>57778.2266105872</v>
@@ -26438,25 +26438,25 @@
         <v>57778.2266105872</v>
       </c>
       <c r="I4" t="n">
-        <v>92058.25006357803</v>
+        <v>92058.25006357802</v>
       </c>
       <c r="J4" t="n">
+        <v>92058.25006357802</v>
+      </c>
+      <c r="K4" t="n">
         <v>92058.25006357805</v>
-      </c>
-      <c r="K4" t="n">
-        <v>92058.25006357802</v>
       </c>
       <c r="L4" t="n">
         <v>92058.25006357803</v>
       </c>
       <c r="M4" t="n">
-        <v>87922.10578273846</v>
+        <v>87922.10578273844</v>
       </c>
       <c r="N4" t="n">
-        <v>87922.10578273845</v>
+        <v>87922.10578273844</v>
       </c>
       <c r="O4" t="n">
-        <v>87922.10578273841</v>
+        <v>87922.10578273842</v>
       </c>
       <c r="P4" t="n">
         <v>87922.10578273844</v>
@@ -26478,19 +26478,19 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>47689.22653675295</v>
+        <v>47689.22653675296</v>
       </c>
       <c r="F5" t="n">
-        <v>47689.22653675295</v>
+        <v>47689.22653675296</v>
       </c>
       <c r="G5" t="n">
-        <v>47689.22653675295</v>
+        <v>47689.22653675296</v>
       </c>
       <c r="H5" t="n">
-        <v>47689.22653675295</v>
+        <v>47689.22653675296</v>
       </c>
       <c r="I5" t="n">
-        <v>80506.74203497927</v>
+        <v>80506.74203497925</v>
       </c>
       <c r="J5" t="n">
         <v>80506.74203497927</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-158739.8134848852</v>
+        <v>-158739.8134848853</v>
       </c>
       <c r="C6" t="n">
-        <v>64959.88509915967</v>
+        <v>64959.8850991596</v>
       </c>
       <c r="D6" t="n">
-        <v>64959.88509915967</v>
+        <v>64959.88509915966</v>
       </c>
       <c r="E6" t="n">
-        <v>-20692.12338385044</v>
+        <v>-21115.36496339299</v>
       </c>
       <c r="F6" t="n">
-        <v>114642.9596967224</v>
+        <v>114219.7181171801</v>
       </c>
       <c r="G6" t="n">
-        <v>114642.9596967225</v>
+        <v>114219.7181171801</v>
       </c>
       <c r="H6" t="n">
-        <v>114642.9596967225</v>
+        <v>114219.7181171801</v>
       </c>
       <c r="I6" t="n">
-        <v>4054.660363696603</v>
+        <v>4048.265570584607</v>
       </c>
       <c r="J6" t="n">
-        <v>-27062.69922894634</v>
+        <v>-27069.09402205862</v>
       </c>
       <c r="K6" t="n">
-        <v>147588.6494887599</v>
+        <v>147582.2546956477</v>
       </c>
       <c r="L6" t="n">
-        <v>147588.6494887598</v>
+        <v>147582.2546956475</v>
       </c>
       <c r="M6" t="n">
-        <v>143613.5026631306</v>
+        <v>143556.8121502957</v>
       </c>
       <c r="N6" t="n">
-        <v>143613.5026631306</v>
+        <v>143556.8121502957</v>
       </c>
       <c r="O6" t="n">
-        <v>143613.5026631307</v>
+        <v>143556.8121502957</v>
       </c>
       <c r="P6" t="n">
-        <v>143613.5026631305</v>
+        <v>143556.8121502957</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>144.2486398170771</v>
+      </c>
+      <c r="F3" t="n">
         <v>144.248639817077</v>
       </c>
-      <c r="F3" t="n">
-        <v>144.2486398170767</v>
-      </c>
       <c r="G3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="H3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="I3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="J3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="K3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="L3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="M3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="N3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="O3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="P3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>732.641549156919</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="F4" t="n">
-        <v>732.641549156919</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="G4" t="n">
-        <v>732.6415491569189</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="H4" t="n">
-        <v>732.6415491569189</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="I4" t="n">
-        <v>1272.403317219852</v>
+        <v>1272.403317219851</v>
       </c>
       <c r="J4" t="n">
         <v>1272.403317219852</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>144.248639817077</v>
+        <v>144.2486398170771</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.12634254906209</v>
+        <v>65.1263425490622</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>539.7617680629328</v>
+        <v>539.7617680629321</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>65.12634254906209</v>
+        <v>65.1263425490622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>328.833030588585</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>72.11458473508583</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.19697732171677</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,10 +27587,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>86.14502017843142</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>50.45407964317491</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.06100714571778</v>
+        <v>154.9299398130869</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H11" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I11" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J11" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K11" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L11" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M11" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N11" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O11" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P11" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R11" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S11" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T11" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H12" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I12" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J12" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K12" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L12" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M12" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N12" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O12" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P12" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R12" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S12" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T12" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H13" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I13" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J13" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K13" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L13" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M13" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N13" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O13" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P13" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q13" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R13" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S13" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T13" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5798940294153833</v>
+        <v>0.5798940294153847</v>
       </c>
       <c r="H14" t="n">
-        <v>5.938839728750295</v>
+        <v>5.93883972875031</v>
       </c>
       <c r="I14" t="n">
-        <v>22.35636456903659</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J14" t="n">
-        <v>49.21778087909394</v>
+        <v>49.21778087909405</v>
       </c>
       <c r="K14" t="n">
-        <v>73.76469514424713</v>
+        <v>73.7646951442473</v>
       </c>
       <c r="L14" t="n">
-        <v>91.51162704696819</v>
+        <v>91.5116270469684</v>
       </c>
       <c r="M14" t="n">
-        <v>101.824317492584</v>
+        <v>101.8243174925842</v>
       </c>
       <c r="N14" t="n">
-        <v>103.4719414036605</v>
+        <v>103.4719414036607</v>
       </c>
       <c r="O14" t="n">
-        <v>97.70562014866124</v>
+        <v>97.70562014866147</v>
       </c>
       <c r="P14" t="n">
-        <v>83.38948629746895</v>
+        <v>83.38948629746915</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.62203136903052</v>
+        <v>62.62203136903067</v>
       </c>
       <c r="R14" t="n">
-        <v>36.42676832526411</v>
+        <v>36.42676832526419</v>
       </c>
       <c r="S14" t="n">
-        <v>13.21433519530306</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T14" t="n">
-        <v>2.538486113765842</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04639152235323066</v>
+        <v>0.04639152235323077</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3102706592291839</v>
+        <v>0.3102706592291846</v>
       </c>
       <c r="H15" t="n">
-        <v>2.996561366766066</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I15" t="n">
-        <v>10.68256436381181</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J15" t="n">
-        <v>29.31377311603443</v>
+        <v>29.3137731160345</v>
       </c>
       <c r="K15" t="n">
-        <v>50.10190728438975</v>
+        <v>50.10190728438987</v>
       </c>
       <c r="L15" t="n">
-        <v>67.36819730324891</v>
+        <v>67.36819730324906</v>
       </c>
       <c r="M15" t="n">
-        <v>78.61550870030679</v>
+        <v>78.61550870030698</v>
       </c>
       <c r="N15" t="n">
-        <v>80.69622728785691</v>
+        <v>80.6962272878571</v>
       </c>
       <c r="O15" t="n">
-        <v>73.82128268072604</v>
+        <v>73.82128268072621</v>
       </c>
       <c r="P15" t="n">
-        <v>59.24808755052723</v>
+        <v>59.24808755052737</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.60577748336038</v>
+        <v>39.60577748336048</v>
       </c>
       <c r="R15" t="n">
-        <v>19.2639975967032</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S15" t="n">
-        <v>5.763141411559618</v>
+        <v>5.763141411559631</v>
       </c>
       <c r="T15" t="n">
-        <v>1.250608490489561</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02041254337034105</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.260120498030794</v>
+        <v>0.2601204980307946</v>
       </c>
       <c r="H16" t="n">
-        <v>2.312707700673789</v>
+        <v>2.312707700673794</v>
       </c>
       <c r="I16" t="n">
-        <v>7.822532795326063</v>
+        <v>7.822532795326081</v>
       </c>
       <c r="J16" t="n">
-        <v>18.39051921077714</v>
+        <v>18.39051921077718</v>
       </c>
       <c r="K16" t="n">
-        <v>30.2212724075777</v>
+        <v>30.22127240757777</v>
       </c>
       <c r="L16" t="n">
-        <v>38.67282386177824</v>
+        <v>38.67282386177833</v>
       </c>
       <c r="M16" t="n">
-        <v>40.7750704322271</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N16" t="n">
-        <v>39.80553039411235</v>
+        <v>39.80553039411245</v>
       </c>
       <c r="O16" t="n">
-        <v>36.76685003075261</v>
+        <v>36.7668500307527</v>
       </c>
       <c r="P16" t="n">
-        <v>31.46039187092439</v>
+        <v>31.46039187092446</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.78154461237858</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R16" t="n">
-        <v>11.69596348418461</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S16" t="n">
-        <v>4.533190861136655</v>
+        <v>4.533190861136665</v>
       </c>
       <c r="T16" t="n">
-        <v>1.111423946131574</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01418839080167969</v>
+        <v>0.01418839080167972</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H17" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I17" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J17" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K17" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L17" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M17" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N17" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O17" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P17" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R17" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S17" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T17" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H18" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I18" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J18" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K18" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L18" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M18" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N18" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O18" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P18" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R18" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S18" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T18" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H19" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I19" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J19" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K19" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L19" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M19" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N19" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O19" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P19" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q19" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R19" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S19" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T19" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H20" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I20" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J20" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K20" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L20" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M20" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N20" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O20" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P20" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R20" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S20" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T20" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H21" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I21" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J21" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K21" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L21" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M21" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N21" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O21" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P21" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q21" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R21" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S21" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T21" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H22" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I22" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J22" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K22" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L22" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M22" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N22" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O22" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P22" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R22" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S22" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T22" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H23" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I23" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J23" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K23" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L23" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M23" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N23" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O23" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P23" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R23" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S23" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T23" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H24" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I24" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J24" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K24" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L24" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M24" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N24" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O24" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P24" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R24" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S24" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T24" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H25" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I25" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J25" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K25" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L25" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M25" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N25" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O25" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P25" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R25" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S25" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T25" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H26" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I26" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J26" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K26" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L26" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M26" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N26" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O26" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P26" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R26" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S26" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T26" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H27" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I27" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J27" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K27" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L27" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M27" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N27" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O27" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P27" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q27" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R27" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S27" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T27" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H28" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I28" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J28" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K28" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L28" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M28" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N28" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O28" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P28" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q28" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R28" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S28" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T28" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H29" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I29" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J29" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K29" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L29" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M29" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N29" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O29" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P29" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R29" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S29" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T29" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H30" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I30" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J30" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K30" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L30" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M30" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N30" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O30" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P30" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q30" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R30" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S30" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T30" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H31" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I31" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J31" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K31" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L31" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M31" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N31" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O31" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P31" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R31" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S31" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T31" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H32" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I32" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J32" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K32" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L32" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M32" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N32" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O32" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P32" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R32" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S32" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T32" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H33" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I33" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J33" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K33" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L33" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M33" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N33" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O33" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P33" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q33" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R33" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S33" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T33" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H34" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I34" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J34" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K34" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L34" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M34" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N34" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O34" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P34" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q34" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R34" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S34" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T34" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H35" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I35" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J35" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K35" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L35" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M35" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N35" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O35" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P35" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R35" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S35" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T35" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H36" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I36" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J36" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K36" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L36" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M36" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N36" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O36" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P36" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R36" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S36" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T36" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H37" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I37" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J37" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K37" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L37" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M37" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N37" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O37" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P37" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R37" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S37" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T37" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H38" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I38" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J38" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K38" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L38" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M38" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N38" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O38" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P38" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R38" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S38" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T38" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H39" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I39" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J39" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K39" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L39" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M39" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N39" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O39" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P39" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q39" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R39" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S39" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T39" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H40" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I40" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J40" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K40" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L40" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M40" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N40" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O40" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P40" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R40" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S40" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T40" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H41" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I41" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J41" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K41" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L41" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M41" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N41" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O41" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P41" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R41" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S41" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T41" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H42" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I42" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J42" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K42" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L42" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M42" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N42" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O42" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P42" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R42" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S42" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T42" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H43" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I43" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J43" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K43" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L43" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M43" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N43" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O43" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P43" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q43" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R43" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S43" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T43" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5798940294153844</v>
+        <v>0.5798940294153848</v>
       </c>
       <c r="H44" t="n">
-        <v>5.938839728750306</v>
+        <v>5.938839728750311</v>
       </c>
       <c r="I44" t="n">
-        <v>22.35636456903663</v>
+        <v>22.35636456903664</v>
       </c>
       <c r="J44" t="n">
-        <v>49.21778087909402</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K44" t="n">
-        <v>73.76469514424726</v>
+        <v>73.76469514424731</v>
       </c>
       <c r="L44" t="n">
-        <v>91.51162704696834</v>
+        <v>91.51162704696841</v>
       </c>
       <c r="M44" t="n">
-        <v>101.8243174925842</v>
+        <v>101.8243174925843</v>
       </c>
       <c r="N44" t="n">
         <v>103.4719414036607</v>
       </c>
       <c r="O44" t="n">
-        <v>97.70562014866141</v>
+        <v>97.7056201486615</v>
       </c>
       <c r="P44" t="n">
-        <v>83.38948629746911</v>
+        <v>83.38948629746916</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.62203136903063</v>
+        <v>62.62203136903068</v>
       </c>
       <c r="R44" t="n">
-        <v>36.42676832526417</v>
+        <v>36.4267683252642</v>
       </c>
       <c r="S44" t="n">
-        <v>13.21433519530308</v>
+        <v>13.21433519530309</v>
       </c>
       <c r="T44" t="n">
-        <v>2.538486113765846</v>
+        <v>2.538486113765848</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04639152235323074</v>
+        <v>0.04639152235323078</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3102706592291844</v>
+        <v>0.3102706592291847</v>
       </c>
       <c r="H45" t="n">
-        <v>2.996561366766071</v>
+        <v>2.996561366766073</v>
       </c>
       <c r="I45" t="n">
-        <v>10.68256436381183</v>
+        <v>10.68256436381184</v>
       </c>
       <c r="J45" t="n">
-        <v>29.31377311603449</v>
+        <v>29.31377311603451</v>
       </c>
       <c r="K45" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L45" t="n">
-        <v>67.36819730324902</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M45" t="n">
-        <v>78.61550870030693</v>
+        <v>78.615508700307</v>
       </c>
       <c r="N45" t="n">
-        <v>80.69622728785706</v>
+        <v>80.69622728785711</v>
       </c>
       <c r="O45" t="n">
-        <v>73.82128268072617</v>
+        <v>73.82128268072623</v>
       </c>
       <c r="P45" t="n">
-        <v>59.24808755052734</v>
+        <v>59.24808755052738</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.60577748336046</v>
+        <v>39.60577748336049</v>
       </c>
       <c r="R45" t="n">
-        <v>19.26399759670323</v>
+        <v>19.26399759670324</v>
       </c>
       <c r="S45" t="n">
-        <v>5.763141411559628</v>
+        <v>5.763141411559633</v>
       </c>
       <c r="T45" t="n">
-        <v>1.250608490489563</v>
+        <v>1.250608490489564</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02041254337034109</v>
+        <v>0.0204125433703411</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2601204980307945</v>
+        <v>0.2601204980307947</v>
       </c>
       <c r="H46" t="n">
-        <v>2.312707700673793</v>
+        <v>2.312707700673795</v>
       </c>
       <c r="I46" t="n">
-        <v>7.822532795326077</v>
+        <v>7.822532795326083</v>
       </c>
       <c r="J46" t="n">
-        <v>18.39051921077717</v>
+        <v>18.39051921077719</v>
       </c>
       <c r="K46" t="n">
-        <v>30.22127240757775</v>
+        <v>30.22127240757778</v>
       </c>
       <c r="L46" t="n">
-        <v>38.6728238617783</v>
+        <v>38.67282386177834</v>
       </c>
       <c r="M46" t="n">
-        <v>40.77507043222717</v>
+        <v>40.7750704322272</v>
       </c>
       <c r="N46" t="n">
-        <v>39.80553039411242</v>
+        <v>39.80553039411246</v>
       </c>
       <c r="O46" t="n">
-        <v>36.76685003075268</v>
+        <v>36.76685003075271</v>
       </c>
       <c r="P46" t="n">
-        <v>31.46039187092444</v>
+        <v>31.46039187092447</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.78154461237862</v>
+        <v>21.78154461237864</v>
       </c>
       <c r="R46" t="n">
-        <v>11.69596348418463</v>
+        <v>11.69596348418464</v>
       </c>
       <c r="S46" t="n">
-        <v>4.533190861136663</v>
+        <v>4.533190861136666</v>
       </c>
       <c r="T46" t="n">
-        <v>1.111423946131576</v>
+        <v>1.111423946131577</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01418839080167972</v>
+        <v>0.01418839080167973</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>20.13097499434639</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34938,16 +34938,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>667.515206607857</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3264657984396</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35178,25 +35178,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>316.389926674475</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>226.6534083847602</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J11" t="n">
-        <v>488.8689803264859</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K11" t="n">
-        <v>732.641549156919</v>
+        <v>73.7646951442473</v>
       </c>
       <c r="L11" t="n">
-        <v>91.51162704696844</v>
+        <v>91.51162704696839</v>
       </c>
       <c r="M11" t="n">
-        <v>101.8243174925842</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="N11" t="n">
-        <v>732.6415491569189</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="O11" t="n">
-        <v>97.70562014866118</v>
+        <v>367.5532245485947</v>
       </c>
       <c r="P11" t="n">
-        <v>83.38948629746892</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="Q11" t="n">
-        <v>343.148185162931</v>
+        <v>62.62203136903054</v>
       </c>
       <c r="R11" t="n">
-        <v>207.2894599950187</v>
+        <v>36.42676832526422</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>37.00950695013264</v>
+        <v>37.00950695013265</v>
       </c>
       <c r="J12" t="n">
         <v>357.1504650010975</v>
       </c>
       <c r="K12" t="n">
-        <v>50.10190728438982</v>
+        <v>192.1528643868156</v>
       </c>
       <c r="L12" t="n">
-        <v>67.36819730324896</v>
+        <v>67.36819730324919</v>
       </c>
       <c r="M12" t="n">
-        <v>78.61550870030692</v>
+        <v>78.61550870030703</v>
       </c>
       <c r="N12" t="n">
-        <v>80.69622728785703</v>
+        <v>80.69622728785714</v>
       </c>
       <c r="O12" t="n">
         <v>73.8212826807262</v>
       </c>
       <c r="P12" t="n">
-        <v>201.2990446529536</v>
+        <v>59.24808755052743</v>
       </c>
       <c r="Q12" t="n">
         <v>585.8067255965682</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8447466498579</v>
+        <v>105.8447466498578</v>
       </c>
       <c r="K13" t="n">
         <v>307.7550649036743</v>
       </c>
       <c r="L13" t="n">
-        <v>461.1070478698196</v>
+        <v>461.1070478698199</v>
       </c>
       <c r="M13" t="n">
         <v>504.9001887967858</v>
       </c>
       <c r="N13" t="n">
-        <v>486.5315941897131</v>
+        <v>486.5315941897134</v>
       </c>
       <c r="O13" t="n">
         <v>460.6751825820472</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>21.94374308990519</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J14" t="n">
-        <v>49.21778087909395</v>
+        <v>488.8689803264858</v>
       </c>
       <c r="K14" t="n">
-        <v>73.76469514424713</v>
+        <v>73.7646951442473</v>
       </c>
       <c r="L14" t="n">
-        <v>732.6415491569189</v>
+        <v>91.51162704696844</v>
       </c>
       <c r="M14" t="n">
-        <v>101.824317492584</v>
+        <v>101.8243174925842</v>
       </c>
       <c r="N14" t="n">
-        <v>732.6415491569189</v>
+        <v>103.4719414036607</v>
       </c>
       <c r="O14" t="n">
-        <v>357.2405341029794</v>
+        <v>465.0071971332895</v>
       </c>
       <c r="P14" t="n">
         <v>732.6415491569192</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.62203136903054</v>
+        <v>614.6410070847828</v>
       </c>
       <c r="R14" t="n">
-        <v>36.42676832526422</v>
+        <v>207.2894599950187</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>37.00950695013261</v>
+        <v>37.00950695013265</v>
       </c>
       <c r="J15" t="n">
         <v>357.1504650010975</v>
       </c>
       <c r="K15" t="n">
-        <v>50.10190728438971</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="L15" t="n">
-        <v>67.36819730324891</v>
+        <v>73.08046064635369</v>
       </c>
       <c r="M15" t="n">
-        <v>78.6155087003068</v>
+        <v>78.61550870030692</v>
       </c>
       <c r="N15" t="n">
-        <v>80.69622728785691</v>
+        <v>80.69622728785703</v>
       </c>
       <c r="O15" t="n">
-        <v>73.82128268072609</v>
+        <v>73.8212826807262</v>
       </c>
       <c r="P15" t="n">
-        <v>201.2990446529543</v>
+        <v>59.24808755052732</v>
       </c>
       <c r="Q15" t="n">
-        <v>585.8067255965681</v>
+        <v>39.6057774833605</v>
       </c>
       <c r="R15" t="n">
         <v>137.6203391061374</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8447466498578</v>
+        <v>105.8447466498579</v>
       </c>
       <c r="K16" t="n">
-        <v>307.7550649036742</v>
+        <v>307.7550649036743</v>
       </c>
       <c r="L16" t="n">
-        <v>461.1070478698197</v>
+        <v>461.1070478698199</v>
       </c>
       <c r="M16" t="n">
         <v>504.9001887967859</v>
       </c>
       <c r="N16" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O16" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P16" t="n">
         <v>382.4774564874315</v>
       </c>
       <c r="Q16" t="n">
-        <v>191.6732363945325</v>
+        <v>191.6732363945321</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J17" t="n">
-        <v>49.21778087909404</v>
+        <v>488.8689803264858</v>
       </c>
       <c r="K17" t="n">
-        <v>73.76469514424724</v>
+        <v>441.0662721288753</v>
       </c>
       <c r="L17" t="n">
-        <v>732.6415491569189</v>
+        <v>91.51162704696844</v>
       </c>
       <c r="M17" t="n">
         <v>101.8243174925842</v>
       </c>
       <c r="N17" t="n">
-        <v>732.6415491569189</v>
+        <v>103.4719414036608</v>
       </c>
       <c r="O17" t="n">
+        <v>97.70562014866141</v>
+      </c>
+      <c r="P17" t="n">
         <v>732.6415491569192</v>
       </c>
-      <c r="P17" t="n">
-        <v>357.2405341029785</v>
-      </c>
       <c r="Q17" t="n">
-        <v>62.62203136903054</v>
+        <v>614.6410070847828</v>
       </c>
       <c r="R17" t="n">
-        <v>36.42676832526422</v>
+        <v>207.2894599950187</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>37.00950695013265</v>
       </c>
       <c r="J18" t="n">
-        <v>29.31377311603448</v>
+        <v>357.1504650010975</v>
       </c>
       <c r="K18" t="n">
-        <v>50.10190728438984</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L18" t="n">
-        <v>528.4196743069886</v>
+        <v>67.36819730324913</v>
       </c>
       <c r="M18" t="n">
-        <v>78.61550870030692</v>
+        <v>78.61550870030703</v>
       </c>
       <c r="N18" t="n">
-        <v>80.69622728785703</v>
+        <v>80.69622728785714</v>
       </c>
       <c r="O18" t="n">
         <v>73.8212826807262</v>
       </c>
       <c r="P18" t="n">
-        <v>732.6415491569189</v>
+        <v>201.2990446529532</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.6057774833605</v>
+        <v>585.8067255965682</v>
       </c>
       <c r="R18" t="n">
-        <v>19.26399759670312</v>
+        <v>137.6203391061374</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8447466498579</v>
+        <v>105.8447466498578</v>
       </c>
       <c r="K19" t="n">
-        <v>307.7550649036738</v>
+        <v>307.7550649036745</v>
       </c>
       <c r="L19" t="n">
         <v>461.1070478698199</v>
       </c>
       <c r="M19" t="n">
-        <v>504.9001887967858</v>
+        <v>504.9001887967859</v>
       </c>
       <c r="N19" t="n">
-        <v>486.5315941897131</v>
+        <v>486.5315941897129</v>
       </c>
       <c r="O19" t="n">
         <v>460.675182582047</v>
@@ -36062,7 +36062,7 @@
         <v>382.4774564874315</v>
       </c>
       <c r="Q19" t="n">
-        <v>191.6732363945321</v>
+        <v>191.6732363945325</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J20" t="n">
-        <v>197.2937032984419</v>
+        <v>49.21778087909406</v>
       </c>
       <c r="K20" t="n">
-        <v>732.6415491569189</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="L20" t="n">
-        <v>91.51162704696833</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="M20" t="n">
         <v>101.8243174925842</v>
       </c>
       <c r="N20" t="n">
-        <v>103.4719414036606</v>
+        <v>103.4719414036608</v>
       </c>
       <c r="O20" t="n">
-        <v>97.70562014866141</v>
+        <v>732.6415491569194</v>
       </c>
       <c r="P20" t="n">
-        <v>732.6415491569189</v>
+        <v>83.38948629746938</v>
       </c>
       <c r="Q20" t="n">
-        <v>614.6410070847828</v>
+        <v>306.7658329151263</v>
       </c>
       <c r="R20" t="n">
-        <v>207.2894599950187</v>
+        <v>36.42676832526422</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>37.00950695013262</v>
+        <v>37.00950695013265</v>
       </c>
       <c r="J21" t="n">
         <v>357.1504650010975</v>
       </c>
       <c r="K21" t="n">
-        <v>50.10190728438988</v>
+        <v>732.6415491569192</v>
       </c>
       <c r="L21" t="n">
-        <v>67.36819730324896</v>
+        <v>73.08046064635369</v>
       </c>
       <c r="M21" t="n">
         <v>78.61550870030692</v>
@@ -36217,13 +36217,13 @@
         <v>73.8212826807262</v>
       </c>
       <c r="P21" t="n">
-        <v>201.2990446529534</v>
+        <v>59.24808755052732</v>
       </c>
       <c r="Q21" t="n">
-        <v>585.8067255965684</v>
+        <v>39.6057774833605</v>
       </c>
       <c r="R21" t="n">
-        <v>137.6203391061372</v>
+        <v>137.6203391061374</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8447466498573</v>
+        <v>105.8447466498578</v>
       </c>
       <c r="K22" t="n">
         <v>307.7550649036743</v>
       </c>
       <c r="L22" t="n">
-        <v>461.1070478698196</v>
+        <v>461.1070478698198</v>
       </c>
       <c r="M22" t="n">
-        <v>504.9001887967859</v>
+        <v>504.900188796786</v>
       </c>
       <c r="N22" t="n">
         <v>486.5315941897131</v>
@@ -36299,7 +36299,7 @@
         <v>382.4774564874315</v>
       </c>
       <c r="Q22" t="n">
-        <v>191.6732363945321</v>
+        <v>191.6732363945325</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,22 +36354,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J23" t="n">
-        <v>49.21778087909404</v>
+        <v>488.8689803264859</v>
       </c>
       <c r="K23" t="n">
-        <v>916.5427678292755</v>
+        <v>916.5427678292756</v>
       </c>
       <c r="L23" t="n">
-        <v>1015.419797090778</v>
+        <v>91.51162704696844</v>
       </c>
       <c r="M23" t="n">
         <v>101.8243174925842</v>
       </c>
       <c r="N23" t="n">
-        <v>103.4719414036608</v>
+        <v>587.7289120000762</v>
       </c>
       <c r="O23" t="n">
         <v>1087.786091431799</v>
@@ -36378,7 +36378,7 @@
         <v>920.066127543324</v>
       </c>
       <c r="Q23" t="n">
-        <v>614.6410070847824</v>
+        <v>614.6410070847833</v>
       </c>
       <c r="R23" t="n">
         <v>207.2894599950178</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>37.00950695013265</v>
+        <v>37.00950695013266</v>
       </c>
       <c r="J24" t="n">
         <v>357.1504650010975</v>
       </c>
       <c r="K24" t="n">
-        <v>50.10190728438982</v>
+        <v>50.10190728438994</v>
       </c>
       <c r="L24" t="n">
         <v>67.36819730324908</v>
       </c>
       <c r="M24" t="n">
-        <v>78.61550870030692</v>
+        <v>78.61550870030703</v>
       </c>
       <c r="N24" t="n">
-        <v>80.69622728785703</v>
+        <v>80.69622728785714</v>
       </c>
       <c r="O24" t="n">
         <v>73.8212826807262</v>
       </c>
       <c r="P24" t="n">
-        <v>201.2990446529532</v>
+        <v>201.2990446529528</v>
       </c>
       <c r="Q24" t="n">
         <v>585.8067255965682</v>
@@ -36527,10 +36527,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N25" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O25" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P25" t="n">
         <v>382.4774564874315</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J26" t="n">
-        <v>488.8689803264859</v>
+        <v>488.8689803264858</v>
       </c>
       <c r="K26" t="n">
         <v>916.5427678292756</v>
       </c>
       <c r="L26" t="n">
-        <v>575.7685976433856</v>
+        <v>1177.43078487814</v>
       </c>
       <c r="M26" t="n">
         <v>101.8243174925842</v>
@@ -36615,10 +36615,10 @@
         <v>920.066127543324</v>
       </c>
       <c r="Q26" t="n">
-        <v>614.6410070847824</v>
+        <v>183.8415115197822</v>
       </c>
       <c r="R26" t="n">
-        <v>207.2894599950178</v>
+        <v>36.42676832526377</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>357.1504650010975</v>
       </c>
       <c r="K27" t="n">
-        <v>50.10190728438982</v>
+        <v>737.7115235170943</v>
       </c>
       <c r="L27" t="n">
-        <v>67.36819730324908</v>
+        <v>68.01048628617809</v>
       </c>
       <c r="M27" t="n">
         <v>78.61550870030692</v>
@@ -36691,10 +36691,10 @@
         <v>73.8212826807262</v>
       </c>
       <c r="P27" t="n">
-        <v>201.2990446529532</v>
+        <v>59.24808755052732</v>
       </c>
       <c r="Q27" t="n">
-        <v>585.8067255965682</v>
+        <v>39.6057774833605</v>
       </c>
       <c r="R27" t="n">
         <v>137.6203391061374</v>
@@ -36764,10 +36764,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N28" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O28" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P28" t="n">
         <v>382.4774564874315</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J29" t="n">
-        <v>488.8689803264859</v>
+        <v>49.21778087909405</v>
       </c>
       <c r="K29" t="n">
-        <v>916.5427678292756</v>
+        <v>916.5427678292757</v>
       </c>
       <c r="L29" t="n">
-        <v>91.51162704696844</v>
+        <v>1177.430784878139</v>
       </c>
       <c r="M29" t="n">
         <v>101.8243174925842</v>
       </c>
       <c r="N29" t="n">
-        <v>1240.573944874819</v>
+        <v>103.4719414036608</v>
       </c>
       <c r="O29" t="n">
         <v>1087.786091431799</v>
       </c>
       <c r="P29" t="n">
-        <v>267.2210946685827</v>
+        <v>758.055139755962</v>
       </c>
       <c r="Q29" t="n">
         <v>614.6410070847824</v>
@@ -36913,10 +36913,10 @@
         <v>357.1504650010975</v>
       </c>
       <c r="K30" t="n">
-        <v>50.10190728438982</v>
+        <v>737.7115235170943</v>
       </c>
       <c r="L30" t="n">
-        <v>67.36819730324908</v>
+        <v>68.01048628617809</v>
       </c>
       <c r="M30" t="n">
         <v>78.61550870030692</v>
@@ -36928,10 +36928,10 @@
         <v>73.8212826807262</v>
       </c>
       <c r="P30" t="n">
-        <v>201.2990446529532</v>
+        <v>59.24808755052732</v>
       </c>
       <c r="Q30" t="n">
-        <v>585.8067255965682</v>
+        <v>39.6057774833605</v>
       </c>
       <c r="R30" t="n">
         <v>137.6203391061374</v>
@@ -37001,10 +37001,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N31" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O31" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P31" t="n">
         <v>382.4774564874315</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J32" t="n">
-        <v>49.21778087909404</v>
+        <v>488.8689803264858</v>
       </c>
       <c r="K32" t="n">
-        <v>73.76469514424724</v>
+        <v>916.5427678292756</v>
       </c>
       <c r="L32" t="n">
         <v>1177.43078487814</v>
       </c>
       <c r="M32" t="n">
-        <v>1270.559504573949</v>
+        <v>101.8243174925842</v>
       </c>
       <c r="N32" t="n">
-        <v>1240.573944874819</v>
+        <v>103.4719414036608</v>
       </c>
       <c r="O32" t="n">
-        <v>1022.274294408303</v>
+        <v>486.1239041970452</v>
       </c>
       <c r="P32" t="n">
-        <v>83.38948629746938</v>
+        <v>920.066127543324</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.62203136903099</v>
+        <v>614.6410070847824</v>
       </c>
       <c r="R32" t="n">
-        <v>36.42676832526377</v>
+        <v>207.2894599950178</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>357.1504650010975</v>
       </c>
       <c r="K33" t="n">
-        <v>50.10190728438982</v>
+        <v>50.10190728438994</v>
       </c>
       <c r="L33" t="n">
         <v>67.36819730324908</v>
       </c>
       <c r="M33" t="n">
-        <v>78.61550870030692</v>
+        <v>78.61550870030703</v>
       </c>
       <c r="N33" t="n">
-        <v>80.69622728785703</v>
+        <v>80.69622728785714</v>
       </c>
       <c r="O33" t="n">
         <v>73.8212826807262</v>
       </c>
       <c r="P33" t="n">
-        <v>201.2990446529532</v>
+        <v>201.2990446529528</v>
       </c>
       <c r="Q33" t="n">
         <v>585.8067255965682</v>
@@ -37238,10 +37238,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N34" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O34" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P34" t="n">
         <v>382.4774564874315</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J35" t="n">
-        <v>488.8689803264858</v>
+        <v>488.8689803264859</v>
       </c>
       <c r="K35" t="n">
-        <v>916.5427678292756</v>
+        <v>916.5427678292757</v>
       </c>
       <c r="L35" t="n">
-        <v>317.8945948228566</v>
+        <v>317.8945948228561</v>
       </c>
       <c r="M35" t="n">
         <v>101.8243174925842</v>
       </c>
       <c r="N35" t="n">
-        <v>103.4719414036606</v>
+        <v>103.4719414036608</v>
       </c>
       <c r="O35" t="n">
         <v>1087.786091431799</v>
@@ -37387,25 +37387,25 @@
         <v>357.1504650010975</v>
       </c>
       <c r="K36" t="n">
-        <v>737.7115235170943</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L36" t="n">
-        <v>67.36819730324896</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M36" t="n">
-        <v>78.61550870030692</v>
+        <v>78.61550870030703</v>
       </c>
       <c r="N36" t="n">
-        <v>80.69622728785703</v>
+        <v>80.69622728785714</v>
       </c>
       <c r="O36" t="n">
-        <v>74.46357166365556</v>
+        <v>73.8212826807262</v>
       </c>
       <c r="P36" t="n">
-        <v>59.24808755052732</v>
+        <v>201.2990446529531</v>
       </c>
       <c r="Q36" t="n">
-        <v>39.6057774833605</v>
+        <v>585.8067255965682</v>
       </c>
       <c r="R36" t="n">
         <v>137.6203391061374</v>
@@ -37475,10 +37475,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N37" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O37" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P37" t="n">
         <v>382.4774564874315</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J38" t="n">
-        <v>49.21778087909404</v>
+        <v>488.8689803264859</v>
       </c>
       <c r="K38" t="n">
-        <v>73.76469514424724</v>
+        <v>73.7646951442473</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.43078487814</v>
+        <v>91.51162704696844</v>
       </c>
       <c r="M38" t="n">
         <v>1207.27697467079</v>
@@ -37557,13 +37557,13 @@
         <v>1207.27697467079</v>
       </c>
       <c r="O38" t="n">
-        <v>690.1171000252093</v>
+        <v>97.70562014866164</v>
       </c>
       <c r="P38" t="n">
-        <v>83.38948629746847</v>
+        <v>770.0499488420437</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.62203136903099</v>
+        <v>614.6410070847828</v>
       </c>
       <c r="R38" t="n">
         <v>207.2894599950178</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>37.00950695013262</v>
+        <v>37.00950695013265</v>
       </c>
       <c r="J39" t="n">
         <v>357.1504650010975</v>
       </c>
       <c r="K39" t="n">
-        <v>50.10190728438965</v>
+        <v>50.10190728438988</v>
       </c>
       <c r="L39" t="n">
-        <v>67.36819730324896</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M39" t="n">
-        <v>78.61550870030715</v>
+        <v>78.61550870030703</v>
       </c>
       <c r="N39" t="n">
-        <v>80.69622728785725</v>
+        <v>80.69622728785714</v>
       </c>
       <c r="O39" t="n">
         <v>73.8212826807262</v>
       </c>
       <c r="P39" t="n">
-        <v>201.2990446529525</v>
+        <v>747.4999927661607</v>
       </c>
       <c r="Q39" t="n">
-        <v>585.806725596568</v>
+        <v>39.6057774833605</v>
       </c>
       <c r="R39" t="n">
-        <v>137.6203391061372</v>
+        <v>137.6203391061374</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37712,10 +37712,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N40" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O40" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P40" t="n">
         <v>382.4774564874315</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J41" t="n">
-        <v>488.8689803264858</v>
+        <v>49.21778087909405</v>
       </c>
       <c r="K41" t="n">
-        <v>916.5427678292756</v>
+        <v>73.76469514424733</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.430784878139</v>
+        <v>1177.43078487814</v>
       </c>
       <c r="M41" t="n">
-        <v>101.8243174925842</v>
+        <v>980.4706749339528</v>
       </c>
       <c r="N41" t="n">
         <v>1207.27697467079</v>
       </c>
       <c r="O41" t="n">
-        <v>97.70562014866118</v>
+        <v>1087.786091431799</v>
       </c>
       <c r="P41" t="n">
-        <v>117.668067173804</v>
+        <v>83.38948629746938</v>
       </c>
       <c r="Q41" t="n">
-        <v>614.6410070847833</v>
+        <v>62.62203136903099</v>
       </c>
       <c r="R41" t="n">
         <v>36.42676832526377</v>
@@ -37861,10 +37861,10 @@
         <v>357.1504650010975</v>
       </c>
       <c r="K42" t="n">
-        <v>50.10190728438988</v>
+        <v>737.7115235170943</v>
       </c>
       <c r="L42" t="n">
-        <v>67.36819730324896</v>
+        <v>68.01048628617832</v>
       </c>
       <c r="M42" t="n">
         <v>78.61550870030692</v>
@@ -37876,10 +37876,10 @@
         <v>73.8212826807262</v>
       </c>
       <c r="P42" t="n">
-        <v>201.2990446529534</v>
+        <v>59.24808755052732</v>
       </c>
       <c r="Q42" t="n">
-        <v>585.8067255965682</v>
+        <v>39.6057774833605</v>
       </c>
       <c r="R42" t="n">
         <v>137.6203391061374</v>
@@ -37949,10 +37949,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N43" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O43" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P43" t="n">
         <v>382.4774564874315</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>21.94374308990523</v>
+        <v>21.94374308990524</v>
       </c>
       <c r="J44" t="n">
-        <v>488.8689803264858</v>
+        <v>488.8689803264859</v>
       </c>
       <c r="K44" t="n">
-        <v>893.6832190198475</v>
+        <v>916.5427678292757</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.43078487814</v>
+        <v>91.51162704696844</v>
       </c>
       <c r="M44" t="n">
         <v>101.8243174925842</v>
       </c>
       <c r="N44" t="n">
-        <v>103.4719414036608</v>
+        <v>329.8549091795485</v>
       </c>
       <c r="O44" t="n">
         <v>1087.786091431799</v>
       </c>
       <c r="P44" t="n">
-        <v>83.38948629746892</v>
+        <v>920.066127543324</v>
       </c>
       <c r="Q44" t="n">
         <v>614.6410070847828</v>
@@ -38101,19 +38101,19 @@
         <v>50.10190728438988</v>
       </c>
       <c r="L45" t="n">
-        <v>67.36819730324896</v>
+        <v>67.36819730324908</v>
       </c>
       <c r="M45" t="n">
-        <v>78.61550870030692</v>
+        <v>78.61550870030703</v>
       </c>
       <c r="N45" t="n">
-        <v>80.69622728785703</v>
+        <v>80.69622728785714</v>
       </c>
       <c r="O45" t="n">
         <v>73.8212826807262</v>
       </c>
       <c r="P45" t="n">
-        <v>201.2990446529534</v>
+        <v>201.2990446529531</v>
       </c>
       <c r="Q45" t="n">
         <v>585.8067255965682</v>
@@ -38186,10 +38186,10 @@
         <v>504.9001887967859</v>
       </c>
       <c r="N46" t="n">
-        <v>486.5315941897129</v>
+        <v>486.5315941897131</v>
       </c>
       <c r="O46" t="n">
-        <v>460.675182582047</v>
+        <v>460.6751825820472</v>
       </c>
       <c r="P46" t="n">
         <v>382.4774564874315</v>
